--- a/Test.xlsx
+++ b/Test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="17">
   <si>
     <t>År</t>
   </si>
@@ -28,1912 +28,40 @@
     <t>Inn</t>
   </si>
   <si>
-    <t>1. Oktober</t>
+    <t>Oktober</t>
   </si>
   <si>
-    <t>2. Oktober</t>
+    <t>November</t>
   </si>
   <si>
-    <t>3. Oktober</t>
+    <t>Desember</t>
   </si>
   <si>
-    <t>4. Oktober</t>
+    <t>Januar</t>
   </si>
   <si>
-    <t>5. Oktober</t>
+    <t>Februar</t>
   </si>
   <si>
-    <t>6. Oktober</t>
+    <t>Mars</t>
   </si>
   <si>
-    <t>7. Oktober</t>
+    <t>April</t>
   </si>
   <si>
-    <t>8. Oktober</t>
+    <t>Mai</t>
   </si>
   <si>
-    <t>9. Oktober</t>
+    <t>Juni</t>
   </si>
   <si>
-    <t>10. Oktober</t>
+    <t>Juli</t>
   </si>
   <si>
-    <t>11. Oktober</t>
+    <t>August</t>
   </si>
   <si>
-    <t>12. Oktober</t>
-  </si>
-  <si>
-    <t>13. Oktober</t>
-  </si>
-  <si>
-    <t>15. Oktober</t>
-  </si>
-  <si>
-    <t>16. Oktober</t>
-  </si>
-  <si>
-    <t>17. Oktober</t>
-  </si>
-  <si>
-    <t>18. Oktober</t>
-  </si>
-  <si>
-    <t>19. Oktober</t>
-  </si>
-  <si>
-    <t>20. Oktober</t>
-  </si>
-  <si>
-    <t>21. Oktober</t>
-  </si>
-  <si>
-    <t>22. Oktober</t>
-  </si>
-  <si>
-    <t>23. Oktober</t>
-  </si>
-  <si>
-    <t>24. Oktober</t>
-  </si>
-  <si>
-    <t>25. Oktober</t>
-  </si>
-  <si>
-    <t>26. Oktober</t>
-  </si>
-  <si>
-    <t>27. Oktober</t>
-  </si>
-  <si>
-    <t>28. Oktober</t>
-  </si>
-  <si>
-    <t>29. Oktober</t>
-  </si>
-  <si>
-    <t>30. Oktober</t>
-  </si>
-  <si>
-    <t>31. Oktober</t>
-  </si>
-  <si>
-    <t>1. November</t>
-  </si>
-  <si>
-    <t>2. November</t>
-  </si>
-  <si>
-    <t>4. November</t>
-  </si>
-  <si>
-    <t>5. November</t>
-  </si>
-  <si>
-    <t>6. November</t>
-  </si>
-  <si>
-    <t>7. November</t>
-  </si>
-  <si>
-    <t>8. November</t>
-  </si>
-  <si>
-    <t>9. November</t>
-  </si>
-  <si>
-    <t>10. November</t>
-  </si>
-  <si>
-    <t>12. November</t>
-  </si>
-  <si>
-    <t>13. November</t>
-  </si>
-  <si>
-    <t>14. November</t>
-  </si>
-  <si>
-    <t>15. November</t>
-  </si>
-  <si>
-    <t>16. November</t>
-  </si>
-  <si>
-    <t>17. November</t>
-  </si>
-  <si>
-    <t>18. November</t>
-  </si>
-  <si>
-    <t>19. November</t>
-  </si>
-  <si>
-    <t>20. November</t>
-  </si>
-  <si>
-    <t>21. November</t>
-  </si>
-  <si>
-    <t>22. November</t>
-  </si>
-  <si>
-    <t>23. November</t>
-  </si>
-  <si>
-    <t>24. November</t>
-  </si>
-  <si>
-    <t>25. November</t>
-  </si>
-  <si>
-    <t>26. November</t>
-  </si>
-  <si>
-    <t>27. November</t>
-  </si>
-  <si>
-    <t>28. November</t>
-  </si>
-  <si>
-    <t>29. November</t>
-  </si>
-  <si>
-    <t>30. November</t>
-  </si>
-  <si>
-    <t>1. Desember</t>
-  </si>
-  <si>
-    <t>2. Desember</t>
-  </si>
-  <si>
-    <t>3. Desember</t>
-  </si>
-  <si>
-    <t>4. Desember</t>
-  </si>
-  <si>
-    <t>5. Desember</t>
-  </si>
-  <si>
-    <t>6. Desember</t>
-  </si>
-  <si>
-    <t>8. Desember</t>
-  </si>
-  <si>
-    <t>9. Desember</t>
-  </si>
-  <si>
-    <t>10. Desember</t>
-  </si>
-  <si>
-    <t>11. Desember</t>
-  </si>
-  <si>
-    <t>12. Desember</t>
-  </si>
-  <si>
-    <t>13. Desember</t>
-  </si>
-  <si>
-    <t>14. Desember</t>
-  </si>
-  <si>
-    <t>15. Desember</t>
-  </si>
-  <si>
-    <t>18. Desember</t>
-  </si>
-  <si>
-    <t>19. Desember</t>
-  </si>
-  <si>
-    <t>20. Desember</t>
-  </si>
-  <si>
-    <t>21. Desember</t>
-  </si>
-  <si>
-    <t>22. Desember</t>
-  </si>
-  <si>
-    <t>25. Desember</t>
-  </si>
-  <si>
-    <t>27. Desember</t>
-  </si>
-  <si>
-    <t>28. Desember</t>
-  </si>
-  <si>
-    <t>29. Desember</t>
-  </si>
-  <si>
-    <t>30. Desember</t>
-  </si>
-  <si>
-    <t>1. Januar</t>
-  </si>
-  <si>
-    <t>2. Januar</t>
-  </si>
-  <si>
-    <t>3. Januar</t>
-  </si>
-  <si>
-    <t>4. Januar</t>
-  </si>
-  <si>
-    <t>6. Januar</t>
-  </si>
-  <si>
-    <t>7. Januar</t>
-  </si>
-  <si>
-    <t>8. Januar</t>
-  </si>
-  <si>
-    <t>9. Januar</t>
-  </si>
-  <si>
-    <t>10. Januar</t>
-  </si>
-  <si>
-    <t>11. Januar</t>
-  </si>
-  <si>
-    <t>12. Januar</t>
-  </si>
-  <si>
-    <t>13. Januar</t>
-  </si>
-  <si>
-    <t>15. Januar</t>
-  </si>
-  <si>
-    <t>16. Januar</t>
-  </si>
-  <si>
-    <t>17. Januar</t>
-  </si>
-  <si>
-    <t>18. Januar</t>
-  </si>
-  <si>
-    <t>19. Januar</t>
-  </si>
-  <si>
-    <t>20. Januar</t>
-  </si>
-  <si>
-    <t>21. Januar</t>
-  </si>
-  <si>
-    <t>22. Januar</t>
-  </si>
-  <si>
-    <t>23. Januar</t>
-  </si>
-  <si>
-    <t>24. Januar</t>
-  </si>
-  <si>
-    <t>25. Januar</t>
-  </si>
-  <si>
-    <t>28. Januar</t>
-  </si>
-  <si>
-    <t>29. Januar</t>
-  </si>
-  <si>
-    <t>30. Januar</t>
-  </si>
-  <si>
-    <t>31. Januar</t>
-  </si>
-  <si>
-    <t>1. Februar</t>
-  </si>
-  <si>
-    <t>2. Februar</t>
-  </si>
-  <si>
-    <t>3. Februar</t>
-  </si>
-  <si>
-    <t>4. Februar</t>
-  </si>
-  <si>
-    <t>5. Februar</t>
-  </si>
-  <si>
-    <t>6. Februar</t>
-  </si>
-  <si>
-    <t>7. Februar</t>
-  </si>
-  <si>
-    <t>8. Februar</t>
-  </si>
-  <si>
-    <t>9. Februar</t>
-  </si>
-  <si>
-    <t>10. Februar</t>
-  </si>
-  <si>
-    <t>11. Februar</t>
-  </si>
-  <si>
-    <t>12. Februar</t>
-  </si>
-  <si>
-    <t>13. Februar</t>
-  </si>
-  <si>
-    <t>14. Februar</t>
-  </si>
-  <si>
-    <t>15. Februar</t>
-  </si>
-  <si>
-    <t>16. Februar</t>
-  </si>
-  <si>
-    <t>18. Februar</t>
-  </si>
-  <si>
-    <t>19. Februar</t>
-  </si>
-  <si>
-    <t>20. Februar</t>
-  </si>
-  <si>
-    <t>21. Februar</t>
-  </si>
-  <si>
-    <t>22. Februar</t>
-  </si>
-  <si>
-    <t>23. Februar</t>
-  </si>
-  <si>
-    <t>24. Februar</t>
-  </si>
-  <si>
-    <t>25. Februar</t>
-  </si>
-  <si>
-    <t>26. Februar</t>
-  </si>
-  <si>
-    <t>27. Februar</t>
-  </si>
-  <si>
-    <t>28. Februar</t>
-  </si>
-  <si>
-    <t>29. Februar</t>
-  </si>
-  <si>
-    <t>1. Mars</t>
-  </si>
-  <si>
-    <t>2. Mars</t>
-  </si>
-  <si>
-    <t>3. Mars</t>
-  </si>
-  <si>
-    <t>5. Mars</t>
-  </si>
-  <si>
-    <t>6. Mars</t>
-  </si>
-  <si>
-    <t>7. Mars</t>
-  </si>
-  <si>
-    <t>8. Mars</t>
-  </si>
-  <si>
-    <t>9. Mars</t>
-  </si>
-  <si>
-    <t>10. Mars</t>
-  </si>
-  <si>
-    <t>11. Mars</t>
-  </si>
-  <si>
-    <t>12. Mars</t>
-  </si>
-  <si>
-    <t>13. Mars</t>
-  </si>
-  <si>
-    <t>14. Mars</t>
-  </si>
-  <si>
-    <t>15. Mars</t>
-  </si>
-  <si>
-    <t>16. Mars</t>
-  </si>
-  <si>
-    <t>18. Mars</t>
-  </si>
-  <si>
-    <t>19. Mars</t>
-  </si>
-  <si>
-    <t>20. Mars</t>
-  </si>
-  <si>
-    <t>21. Mars</t>
-  </si>
-  <si>
-    <t>22. Mars</t>
-  </si>
-  <si>
-    <t>25. Mars</t>
-  </si>
-  <si>
-    <t>27. Mars</t>
-  </si>
-  <si>
-    <t>28. Mars</t>
-  </si>
-  <si>
-    <t>1. April</t>
-  </si>
-  <si>
-    <t>2. April</t>
-  </si>
-  <si>
-    <t>3. April</t>
-  </si>
-  <si>
-    <t>4. April</t>
-  </si>
-  <si>
-    <t>5. April</t>
-  </si>
-  <si>
-    <t>6. April</t>
-  </si>
-  <si>
-    <t>7. April</t>
-  </si>
-  <si>
-    <t>8. April</t>
-  </si>
-  <si>
-    <t>9. April</t>
-  </si>
-  <si>
-    <t>10. April</t>
-  </si>
-  <si>
-    <t>11. April</t>
-  </si>
-  <si>
-    <t>12. April</t>
-  </si>
-  <si>
-    <t>13. April</t>
-  </si>
-  <si>
-    <t>14. April</t>
-  </si>
-  <si>
-    <t>15. April</t>
-  </si>
-  <si>
-    <t>16. April</t>
-  </si>
-  <si>
-    <t>17. April</t>
-  </si>
-  <si>
-    <t>18. April</t>
-  </si>
-  <si>
-    <t>19. April</t>
-  </si>
-  <si>
-    <t>20. April</t>
-  </si>
-  <si>
-    <t>21. April</t>
-  </si>
-  <si>
-    <t>22. April</t>
-  </si>
-  <si>
-    <t>23. April</t>
-  </si>
-  <si>
-    <t>24. April</t>
-  </si>
-  <si>
-    <t>25. April</t>
-  </si>
-  <si>
-    <t>26. April</t>
-  </si>
-  <si>
-    <t>27. April</t>
-  </si>
-  <si>
-    <t>29. April</t>
-  </si>
-  <si>
-    <t>30. April</t>
-  </si>
-  <si>
-    <t>1. Mai</t>
-  </si>
-  <si>
-    <t>2. Mai</t>
-  </si>
-  <si>
-    <t>3. Mai</t>
-  </si>
-  <si>
-    <t>4. Mai</t>
-  </si>
-  <si>
-    <t>5. Mai</t>
-  </si>
-  <si>
-    <t>6. Mai</t>
-  </si>
-  <si>
-    <t>7. Mai</t>
-  </si>
-  <si>
-    <t>8. Mai</t>
-  </si>
-  <si>
-    <t>10. Mai</t>
-  </si>
-  <si>
-    <t>11. Mai</t>
-  </si>
-  <si>
-    <t>13. Mai</t>
-  </si>
-  <si>
-    <t>14. Mai</t>
-  </si>
-  <si>
-    <t>15. Mai</t>
-  </si>
-  <si>
-    <t>16. Mai</t>
-  </si>
-  <si>
-    <t>18. Mai</t>
-  </si>
-  <si>
-    <t>21. Mai</t>
-  </si>
-  <si>
-    <t>22. Mai</t>
-  </si>
-  <si>
-    <t>23. Mai</t>
-  </si>
-  <si>
-    <t>24. Mai</t>
-  </si>
-  <si>
-    <t>25. Mai</t>
-  </si>
-  <si>
-    <t>26. Mai</t>
-  </si>
-  <si>
-    <t>27. Mai</t>
-  </si>
-  <si>
-    <t>28. Mai</t>
-  </si>
-  <si>
-    <t>29. Mai</t>
-  </si>
-  <si>
-    <t>30. Mai</t>
-  </si>
-  <si>
-    <t>31. Mai</t>
-  </si>
-  <si>
-    <t>1. Juni</t>
-  </si>
-  <si>
-    <t>3. Juni</t>
-  </si>
-  <si>
-    <t>4. Juni</t>
-  </si>
-  <si>
-    <t>5. Juni</t>
-  </si>
-  <si>
-    <t>6. Juni</t>
-  </si>
-  <si>
-    <t>7. Juni</t>
-  </si>
-  <si>
-    <t>8. Juni</t>
-  </si>
-  <si>
-    <t>9. Juni</t>
-  </si>
-  <si>
-    <t>10. Juni</t>
-  </si>
-  <si>
-    <t>11. Juni</t>
-  </si>
-  <si>
-    <t>12. Juni</t>
-  </si>
-  <si>
-    <t>13. Juni</t>
-  </si>
-  <si>
-    <t>14. Juni</t>
-  </si>
-  <si>
-    <t>15. Juni</t>
-  </si>
-  <si>
-    <t>17. Juni</t>
-  </si>
-  <si>
-    <t>18. Juni</t>
-  </si>
-  <si>
-    <t>20. Juni</t>
-  </si>
-  <si>
-    <t>21. Juni</t>
-  </si>
-  <si>
-    <t>22. Juni</t>
-  </si>
-  <si>
-    <t>23. Juni</t>
-  </si>
-  <si>
-    <t>24. Juni</t>
-  </si>
-  <si>
-    <t>25. Juni</t>
-  </si>
-  <si>
-    <t>27. Juni</t>
-  </si>
-  <si>
-    <t>28. Juni</t>
-  </si>
-  <si>
-    <t>29. Juni</t>
-  </si>
-  <si>
-    <t>1. Juli</t>
-  </si>
-  <si>
-    <t>3. Juli</t>
-  </si>
-  <si>
-    <t>4. Juli</t>
-  </si>
-  <si>
-    <t>5. Juli</t>
-  </si>
-  <si>
-    <t>6. Juli</t>
-  </si>
-  <si>
-    <t>8. Juli</t>
-  </si>
-  <si>
-    <t>9. Juli</t>
-  </si>
-  <si>
-    <t>10. Juli</t>
-  </si>
-  <si>
-    <t>14. Juli</t>
-  </si>
-  <si>
-    <t>15. Juli</t>
-  </si>
-  <si>
-    <t>16. Juli</t>
-  </si>
-  <si>
-    <t>17. Juli</t>
-  </si>
-  <si>
-    <t>21. Juli</t>
-  </si>
-  <si>
-    <t>23. Juli</t>
-  </si>
-  <si>
-    <t>24. Juli</t>
-  </si>
-  <si>
-    <t>25. Juli</t>
-  </si>
-  <si>
-    <t>26. Juli</t>
-  </si>
-  <si>
-    <t>27. Juli</t>
-  </si>
-  <si>
-    <t>28. Juli</t>
-  </si>
-  <si>
-    <t>31. Juli</t>
-  </si>
-  <si>
-    <t>1. August</t>
-  </si>
-  <si>
-    <t>2. August</t>
-  </si>
-  <si>
-    <t>3. August</t>
-  </si>
-  <si>
-    <t>4. August</t>
-  </si>
-  <si>
-    <t>6. August</t>
-  </si>
-  <si>
-    <t>7. August</t>
-  </si>
-  <si>
-    <t>8. August</t>
-  </si>
-  <si>
-    <t>10. August</t>
-  </si>
-  <si>
-    <t>11. August</t>
-  </si>
-  <si>
-    <t>12. August</t>
-  </si>
-  <si>
-    <t>13. August</t>
-  </si>
-  <si>
-    <t>14. August</t>
-  </si>
-  <si>
-    <t>15. August</t>
-  </si>
-  <si>
-    <t>16. August</t>
-  </si>
-  <si>
-    <t>17. August</t>
-  </si>
-  <si>
-    <t>18. August</t>
-  </si>
-  <si>
-    <t>19. August</t>
-  </si>
-  <si>
-    <t>20. August</t>
-  </si>
-  <si>
-    <t>21. August</t>
-  </si>
-  <si>
-    <t>22. August</t>
-  </si>
-  <si>
-    <t>23. August</t>
-  </si>
-  <si>
-    <t>24. August</t>
-  </si>
-  <si>
-    <t>25. August</t>
-  </si>
-  <si>
-    <t>26. August</t>
-  </si>
-  <si>
-    <t>28. August</t>
-  </si>
-  <si>
-    <t>29. August</t>
-  </si>
-  <si>
-    <t>31. August</t>
-  </si>
-  <si>
-    <t>1. September</t>
-  </si>
-  <si>
-    <t>2. September</t>
-  </si>
-  <si>
-    <t>4. September</t>
-  </si>
-  <si>
-    <t>5. September</t>
-  </si>
-  <si>
-    <t>6. September</t>
-  </si>
-  <si>
-    <t>8. September</t>
-  </si>
-  <si>
-    <t>9. September</t>
-  </si>
-  <si>
-    <t>10. September</t>
-  </si>
-  <si>
-    <t>11. September</t>
-  </si>
-  <si>
-    <t>12. September</t>
-  </si>
-  <si>
-    <t>13. September</t>
-  </si>
-  <si>
-    <t>14. September</t>
-  </si>
-  <si>
-    <t>15. September</t>
-  </si>
-  <si>
-    <t>16. September</t>
-  </si>
-  <si>
-    <t>17. September</t>
-  </si>
-  <si>
-    <t>18. September</t>
-  </si>
-  <si>
-    <t>20. September</t>
-  </si>
-  <si>
-    <t>21. September</t>
-  </si>
-  <si>
-    <t>22. September</t>
-  </si>
-  <si>
-    <t>23. September</t>
-  </si>
-  <si>
-    <t>24. September</t>
-  </si>
-  <si>
-    <t>25. September</t>
-  </si>
-  <si>
-    <t>26. September</t>
-  </si>
-  <si>
-    <t>27. September</t>
-  </si>
-  <si>
-    <t>28. September</t>
-  </si>
-  <si>
-    <t>30. September</t>
-  </si>
-  <si>
-    <t>14. Oktober</t>
-  </si>
-  <si>
-    <t>3. November</t>
-  </si>
-  <si>
-    <t>11. November</t>
-  </si>
-  <si>
-    <t>Giro  292 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring Innland  294 Nabla Revy Nettgiro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 03.10 kl. 15.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giro  295 If Skadeforsikring Nuf Nettgiro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 05.10 kl. 13.39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:atb App </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Vipps:nablakiosken </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Den Gode Naboen Øvre Bakklan Trondh Dato 08.10 kl. 00.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 09.10 kl. 16.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Storkiosk . Trondheim Dato 10.10 kl. 09.09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 11.10 kl. 14.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 12.10 kl. 10.39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Storkiosk . Trondheim Dato 13.10 kl. 10.06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100321  Vipps:nablakiosken </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 16.10 kl. 15.37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 17.10 kl. 19.06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 18.10 kl. 10.26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Moholt Vegamot 8 Trondheim Dato 19.10 kl. 16.50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:nablakiosken </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 21.10 kl. 12.55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 22.10 kl. 11.21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Storkiosk . Trondheim Dato 23.10 kl. 09.06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Akademika Gløsh Alfred Getz Trondh Dato 24.10 kl. 09.09 </t>
-  </si>
-  <si>
-    <t>Visa  100022  Usd 8 Zotlo:astral Coach Web Valutakurs: 11,4226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 27.10 kl. 12.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 28.10 kl. 12.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100421  Vipps:coca-colaautomaten. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Vipps:atb App </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 31.10 kl. 10.13 </t>
-  </si>
-  <si>
-    <t>Giro  299 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:nablarevyen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100321  Vipps:nablarevyen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 06.11 kl. 10.06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring Innland  301 Nabla Linjeforening Mobil Betaling </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 08.11 kl. 21.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Vipps:roede Kors </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100422  Nok 200,00 Buckaroo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 13.11 kl. 10.06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring Innland  1346856 Statens Lånekasse For Utdannin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Storkiosk . Trondheim Dato 15.11 kl. 12.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Storkiosk . Trondheim Dato 17.11 kl. 10.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 18.11 kl. 16.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 19.11 kl. 21.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 20.11 kl. 10.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Akademika Gløsh Alfred Getz Trondh Dato 21.11 kl. 09.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 22.11 kl. 15.36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 23.11 kl. 08.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 24.11 kl. 11.06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 25.11 kl. 15.49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 26.11 kl. 11.55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 27.11 kl. 17.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 28.11 kl. 15.55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 29.11 kl. 12.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 30.11 kl. 11.09 </t>
-  </si>
-  <si>
-    <t>Giro  302 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100421  Vipps:atb App </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 03.12 kl. 13.09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 04.12 kl. 21.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 06.12 kl. 18.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 08.12 kl. 19.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Vipps:gibberish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100221  Vipps:entur App </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 11.12 kl. 10.13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 12.12 kl. 10.26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Godt Brød Dronn . Trondheim Dato 13.12 kl. 15.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lønn  36437313 Statens Lånekasse For Utdanning  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:allvit.no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100022  Nok 1680,00 Brilliant.org - e </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100521  Vipps:frelsesarmeen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:vkt Mobilapp </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Narvesen 481 Sentralsykeh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Mester Grønn 13 Gjellebekkst Liersk Dato 22.12 kl. 15.46 </t>
-  </si>
-  <si>
-    <t>Visa  100122  Usd 5,99 Kindle Svcs:kr8yc07p Valutakurs: 10,5242</t>
-  </si>
-  <si>
-    <t>Overføring Innland  1823 Aasne Marie Aa Hoff Studentlivstøtte. Fra Mamma Og Pap Pa</t>
-  </si>
-  <si>
-    <t>Giro  305 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Narvesen 481 Sentralsykeh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Extra Tolvsrød Valløveien 6 Tolvsr Dato 03.01 kl. 15.27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Vipps:vkt Mobilapp </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Lb Garderm 1318 Jernbanetorg Oslo Dato 06.01 kl. 12.59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 07.01 kl. 13.59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring Innland  307 Tønsberg Schakklubb Nettgiro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 09.01 kl. 15.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 10.01 kl. 10.07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 11.01 kl. 12.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100122  Nok 2425,00 Hotel At Booking. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 13.01 kl. 14.30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 15.01 kl. 10.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 16.01 kl. 09.19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 17.01 kl. 12.09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 18.01 kl. 09.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:coca-colaautomaten. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100222  Nok 200,00 Buckaroo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 21.01 kl. 12.19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 22.01 kl. 16.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 23.01 kl. 13.07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 24.01 kl. 10.06 </t>
-  </si>
-  <si>
-    <t>Visa  100022  Usd 8 Zotlo:astral Coach Web Valutakurs: 10,7508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 29.01 kl. 10.03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 30.01 kl. 11.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 31.01 kl. 12.36 </t>
-  </si>
-  <si>
-    <t>Giro  309 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 02.02 kl. 14.30 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Lade Arena Hakkon Vii g Trondh Dato 03.02 kl. 13.56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 04.02 kl. 17.49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100022  Nok 39,00 Toogoodtog 8f736cx8 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 06.02 kl. 10.37 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100022  Nok 49,00 Toogoodtog H085m5qs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Akademika Gløsh Alfred Getz Trondh Dato 08.02 kl. 12.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 09.02 kl. 15.58 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 10.02 kl. 12.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontoregulering  313 Overføring Mellom Egne Konti  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lønn  1103192 Sykehusapotekene Hf  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lønn  43858184 Statens Lånekasse For Utdanning  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 15.02 kl. 16.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:clas Ohlson AS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 18.02 kl. 16.50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Dressmann 189 Kongensgt 11 Trondhei Dato 19.02 kl. 17.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Vipps:nablarevyen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 21.02 kl. 22.40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 22.02 kl. 13.21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 23.02 kl. 16.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 24.02 kl. 15.53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 25.02 kl. 16.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100122  Nok 49,00 Toogoodtog 44eddnhn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100022  Nok 39,00 Toogoodtog Pj39x5s5 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 28.02 kl. 12.03 </t>
-  </si>
-  <si>
-    <t>Overføring  3645962120 Arnstein Lystad Johnsen Middag Kjøttboller Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t>Giro  312 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100221  Vipps:coca-colaautomaten. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 03.03 kl. 18.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 05.03 kl. 16.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 06.03 kl. 12.07 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 07.03 kl. 09.48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Point (5013011) Trondheim Stjørdal Dato 08.03 kl. 10.47 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Hr Redaktør Store Elvegt Mandal Dato 09.03 kl. 23.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Point (5012505) Kjevikveien Kjevik Dato 10.03 kl. 19.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100221  Vipps:atb App </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 12.03 kl. 14.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 13.03 kl. 12.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lønn  47930840 Statens Lånekasse For Utdanning  </t>
-  </si>
-  <si>
-    <t>Giro  315 Leger Uten Grenser Nor. Medeci Avtalegiro Leger Uten Grenser Nor. Medeci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 16.03 kl. 10.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 18.03 kl. 14.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Norli Solsiden Beddingen 2- Trondh Dato 19.03 kl. 14.10 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring Innland  703660 Norwegian Air Shuttle Aoc AS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 21.03 kl. 22.50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100221  Wh Smith Norway </t>
-  </si>
-  <si>
-    <t>Visa  100022  Usd 8 Zotlo:astral Coach Web Valutakurs: 10,9955</t>
-  </si>
-  <si>
-    <t>Giro  320 Skap Kreativ Folkehøyskole AS Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Fjellhandelen Uvdalsveien 3632 Uvd Dato 28.03 kl. 17.46 </t>
-  </si>
-  <si>
-    <t>Giro  318 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Tgi Friday 3550 Lufthavnvege Garder Dato 02.04 kl. 15.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 03.04 kl. 20.29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 04.04 kl. 12.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 05.04 kl. 12.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 06.04 kl. 18.04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 07.04 kl. 12.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 08.04 kl. 07.59 </t>
-  </si>
-  <si>
-    <t>Visa  100022  Usd 5,95 Drivethru Valutakurs: 11,0184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lønn  53440744 Statens Lånekasse For Utdanning  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Outland Trondhe Jomfrugata Trondhie Dato 13.04 kl. 14.12 </t>
-  </si>
-  <si>
-    <t>Giro  321 Leger Uten Grenser Nor. Medeci Avtalegiro Leger Uten Grenser Nor. Medeci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 16.04 kl. 14.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 17.04 kl. 18.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 18.04 kl. 11.06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 19.04 kl. 20.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 20.04 kl. 18.03 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 21.04 kl. 17.21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 24.04 kl. 09.43 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Akademika Gløsh Alfred Getz Trondh Dato 25.04 kl. 14.57 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Elgeseter Klæbuveien 6 Trondh Dato 26.04 kl. 15.39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100022  Nok 18,75 Patreon: Membership </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 29.04 kl. 14.06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 30.04 kl. 16.48 </t>
-  </si>
-  <si>
-    <t>Giro  322 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 02.05 kl. 12.31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 03.05 kl. 13.53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring  79066846879 Christoffer Brevik Tpp: Vipps </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 06.05 kl. 15.43 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 07.05 kl. 21.36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 08.05 kl. 12.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 10.05 kl. 15.33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 11.05 kl. 22.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 13.05 kl. 16.38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Zettle_:super Hero Torg a </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 15.05 kl. 20.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema 1000 Sorge Sorgenfrivei Trondh Dato 16.05 kl. 08.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 18.05 kl. 13.00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 22.05 kl. 12.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100122  Nok 200,00 Buckaroo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Vipps:coca-colaautomaten. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Storkiosk . Trondheim Dato 25.05 kl. 14.59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 26.05 kl. 12.52 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 27.05 kl. 11.25 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100022  Nok 791,23 Paypal :minifactor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 29.05 kl. 14.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 30.05 kl. 18.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Ikea Leangen Hfb Main </t>
-  </si>
-  <si>
-    <t>Giro  326 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 03.06 kl. 13.26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 04.06 kl. 18.56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 06.06 kl. 16.50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Outland AS Jomfrugate 4 Trondheim Dato 07.06 kl. 14.08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 08.06 kl. 21.56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100322  Nok 160,00 Google:donations n </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 10.06 kl. 16.59 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 11.06 kl. 14.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100122  Nok 374,99 Chess.com Chess.co </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lønn  65110184 Statens Lånekasse For Utdanning  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Extra Tolvsrød Valløveien 6 Tolvsr Dato 14.06 kl. 17.47 </t>
-  </si>
-  <si>
-    <t>Giro  331 Leger Uten Grenser Nor. Medeci Avtalegiro Leger Uten Grenser Nor. Medeci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Outland Tønsber Fayes Gate 5 Tønsbe Dato 17.06 kl. 14.09 </t>
-  </si>
-  <si>
-    <t>Visa  100022  Usd 4,95 Drivethru Valutakurs: 10,9636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:entur App </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Farmandstr Jernbanegt. Tønsbe Dato 21.06 kl. 16.46 </t>
-  </si>
-  <si>
-    <t>Overføring Innland  333 Harald Husa Betaling Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bjørgs Cafe Hokksund Sta Hokksund Dato 23.06 kl. 16.41 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Tolvsrød Valløveien 3 Tolvsrød Dato 25.06 kl. 15.35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100121  Vipps:vy App </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Narvesen 599 Byporten Nor </t>
-  </si>
-  <si>
-    <t>Giro  332 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Outland Tønsber Fayes Gate 5 Tønsbe Dato 03.07 kl. 15.22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Outland Tønsber Fayes Gate 5 Tønsbe Dato 04.07 kl. 15.21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Tolvsrød Valløveien 3 Tolvsrød Dato 05.07 kl. 15.20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Freesport Tolvsroed AS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:elkjoep Nettbutikk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Panduro Stoltenbergg Tønsberg Dato 09.07 kl. 16.19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring Innland  308 Sondre Juvik Terningene </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100022  Nok 428,00 Subtel Gmbh </t>
-  </si>
-  <si>
-    <t>Giro  335 Leger Uten Grenser Nor. Medeci Avtalegiro Leger Uten Grenser Nor. Medeci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring Innland  1893 Aasne Marie Aa Hoff Grøt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:vkt-mobilapp Vestfo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Aftenposten AS </t>
-  </si>
-  <si>
-    <t>Visa  100022  Usd 8 Acoach Valutakurs: 11,3014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Vinmonopolet Tønsberg Tønsberg Dato 26.07 kl. 15.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Extra Tolvsrød Valløveien 6 Tolvsr Dato 27.07 kl. 16.54 </t>
-  </si>
-  <si>
-    <t>Overføring Innland  337 Finn Henrik Zacharias Mathiesen Betaling Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t>Overføring Innland  338 Aasne Marie Aasmundtveit Hoff Betaling Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t>Giro  336 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Glitter Jernbanegt. Tønsberg Dato 02.08 kl. 15.40 </t>
-  </si>
-  <si>
-    <t>Overføring Innland  341 Gebyr Vipps 33059315289 Betaling Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t>Overføring  3821497234 Magnus Røhnebæk Sørensen Frokost Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Power Dovrevn. 2 Oppdal Dato 06.08 kl. 17.40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giro  6098156642   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 08.08 kl. 14.54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100022  Nok 893,16 Fw: Coffeezilla </t>
-  </si>
-  <si>
-    <t>Overføring  33385342515 Mari Hoff Gratulerer Med Dagenfra Marte Hedda Knut Mari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lønn  1086692 Sykehusapotekene Hf  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 13.08 kl. 13.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Coca-cola Enterprises Nor </t>
-  </si>
-  <si>
-    <t>Giro  339 Leger Uten Grenser Nor. Medeci Avtalegiro Leger Uten Grenser Nor. Medeci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 16.08 kl. 13.24 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 17.08 kl. 15.22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 18.08 kl. 17.36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 19.08 kl. 09.44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giro  348 Norges Tekn.naturvitensk.unive Nettgiro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring  6431276689 Alexander Maximovich Mitrokhin Vipps AS Peder Aasmundtveit Hoff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Moholt Vegamot 8 Trondheim Dato 22.08 kl. 21.08 </t>
-  </si>
-  <si>
-    <t>Overføring Innland  351 Gebyr Vipps 33489395264 Betaling Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t>Visa  100222  Usd 8 Acoach Valutakurs: 10,8487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 26.08 kl. 13.29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Storkiosk . Trondheim Dato 28.08 kl. 09.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 29.08 kl. 17.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Moholt Vegamot 8 Trondheim Dato 31.08 kl. 16.36 </t>
-  </si>
-  <si>
-    <t>Giro  347 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 04.09 kl. 12.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Moholt Vegamot 8 Trondheim Dato 05.09 kl. 17.03 </t>
-  </si>
-  <si>
-    <t>Overføring  3857551436 Jonas Von Nessen Prytz Rhovcos Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 08.09 kl. 15.21 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 09.09 kl. 15.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 10.09 kl. 17.20 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Realf Høgskolering Trondh Dato 11.09 kl. 12.14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lønn  1118303 Sykehusapotekene Hf  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Moholt Vegamot 8 Trondheim Dato 14.09 kl. 18.04 </t>
-  </si>
-  <si>
-    <t>Giro  352 Leger Uten Grenser Nor. Medeci Avtalegiro Leger Uten Grenser Nor. Medeci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 16.09 kl. 15.32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 17.09 kl. 15.39 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Akademika Gløsh Alfred Getz Trondh Dato 18.09 kl. 09.11 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 20.09 kl. 18.32 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 21.09 kl. 17.26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Galleri Gaven Øvre Bakklan Trondhei Dato 22.09 kl. 13.28 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 23.09 kl. 17.22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Moholt Vegamot 8 Trondheim Dato 24.09 kl. 20.53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Rosenborg Stadsing Dah Trondh Dato 26.09 kl. 10.40 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Storkiosk . Trondheim Dato 27.09 kl. 11.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 28.09 kl. 19.33 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 30.09 kl. 10.09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 01.10 kl. 19.00 </t>
-  </si>
-  <si>
-    <t>Overføring  3885793267 Jonathan Basil Broomfield Kjørlaug Deck Protector Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Zettle_:linjeforeningen d </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Storkiosk . Trondheim Dato 04.10 kl. 11.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 05.10 kl. 19.55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 07.10 kl. 16.35 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Meny Moholt Vegamot 8 Trondheim Dato 10.10 kl. 20.17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 12.10 kl. 20.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 14.10 kl. 16.12 </t>
-  </si>
-  <si>
-    <t>Giro  360 Leger Uten Grenser Nor. Medeci Avtalegiro Leger Uten Grenser Nor. Medeci</t>
-  </si>
-  <si>
-    <t>Visa  100022  Usd 11,25 Titancraft/desktoph Valutakurs: 11,0782</t>
-  </si>
-  <si>
-    <t>Visa  100022  Usd 29,00 Kickstarter.com Valutakurs: 11,1575</t>
-  </si>
-  <si>
-    <t>Giro  355 Gjensidige Forsikring Asa Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 20.10 kl. 17.42 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 21.10 kl. 13.53 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Sit Kafe Realfa Høgskolering Trondh Dato 22.10 kl. 14.15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 23.10 kl. 20.23 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Rosenborg Stadsing Dah Trondh Dato 24.10 kl. 11.05 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 25.10 kl. 16.07 </t>
-  </si>
-  <si>
-    <t>Overføring  3912553242 Arnstein Lystad Johnsen Pizza Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 27.10 kl. 16.55 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 28.10 kl. 11.46 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 29.10 kl. 17.18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Cafe-Sito Strip Alfred Getz Trondh Dato 30.10 kl. 10.02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 31.10 kl. 10.24 </t>
-  </si>
-  <si>
-    <t>Giro  362 Sit Efaktura Tpp: Vipps Mobilepay AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Den Gode Naboen Øvre Bakklan Trondh Dato 02.11 kl. 23.12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visa  100021  Vipps:komplett.no </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Outland Trondhe Jomfrugata Trondhie Dato 04.11 kl. 14.45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Moholt Herman Krags Trondh Dato 06.11 kl. 15.51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Bunnpris Lerken Dybdahls Vei Trondh Dato 07.11 kl. 16.16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overføring Innland  649 Olav Aasmundtveit Hoff Kosta 290 Totalt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varekjøp Rema Moholt Brøsetvn. 17 Trondheim Dato 11.11 kl. 13.57 </t>
+    <t>September</t>
   </si>
   <si>
     <t>Total:</t>
@@ -2328,11 +456,11 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>320</v>
       </c>
       <c r="D2" s="1">
         <v>4764</v>
@@ -2345,11 +473,11 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3">
+        <v>2023</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>107</v>
@@ -2362,11 +490,11 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>2023</v>
       </c>
       <c r="C4" t="s">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>115.4</v>
@@ -2379,11 +507,11 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>2023</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1">
         <v>714.6999999999999</v>
@@ -2396,11 +524,11 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>2023</v>
       </c>
       <c r="C6" t="s">
-        <v>324</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>76.8</v>
@@ -2413,11 +541,11 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
+      <c r="B7">
+        <v>2023</v>
       </c>
       <c r="C7" t="s">
-        <v>325</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
         <v>43</v>
@@ -2430,11 +558,11 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
+      <c r="B8">
+        <v>2023</v>
       </c>
       <c r="C8" t="s">
-        <v>326</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>778.6</v>
@@ -2447,11 +575,11 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
+      <c r="B9">
+        <v>2023</v>
       </c>
       <c r="C9" t="s">
-        <v>327</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>489.9</v>
@@ -2464,11 +592,11 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="B10">
+        <v>2023</v>
       </c>
       <c r="C10" t="s">
-        <v>328</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>268.7</v>
@@ -2481,11 +609,11 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
+      <c r="B11">
+        <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>329</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>794.25</v>
@@ -2498,11 +626,11 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
+      <c r="B12">
+        <v>2023</v>
       </c>
       <c r="C12" t="s">
-        <v>330</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
         <v>2407.7</v>
@@ -2515,11 +643,11 @@
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
+      <c r="B13">
+        <v>2023</v>
       </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>1738.9</v>
@@ -2532,11 +660,11 @@
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
+      <c r="B14">
+        <v>2023</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
         <v>141</v>
@@ -2549,11 +677,11 @@
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
+      <c r="B15">
+        <v>2023</v>
       </c>
       <c r="C15" t="s">
-        <v>333</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
         <v>81</v>
@@ -2566,11 +694,11 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
+      <c r="B16">
+        <v>2023</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
         <v>435.1</v>
@@ -2583,11 +711,11 @@
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
+      <c r="B17">
+        <v>2023</v>
       </c>
       <c r="C17" t="s">
-        <v>335</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
         <v>112.2</v>
@@ -2600,11 +728,11 @@
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
+      <c r="B18">
+        <v>2023</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
         <v>197.2</v>
@@ -2617,11 +745,11 @@
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
+      <c r="B19">
+        <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>337</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
         <v>412.8</v>
@@ -2634,11 +762,11 @@
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
+      <c r="B20">
+        <v>2023</v>
       </c>
       <c r="C20" t="s">
-        <v>338</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
         <v>399.5</v>
@@ -2651,11 +779,11 @@
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
+      <c r="B21">
+        <v>2023</v>
       </c>
       <c r="C21" t="s">
-        <v>339</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
         <v>44.9</v>
@@ -2668,11 +796,11 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>24</v>
+      <c r="B22">
+        <v>2023</v>
       </c>
       <c r="C22" t="s">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
         <v>181.81</v>
@@ -2685,11 +813,11 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
+      <c r="B23">
+        <v>2023</v>
       </c>
       <c r="C23" t="s">
-        <v>341</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
         <v>176.9</v>
@@ -2702,11 +830,11 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
+      <c r="B24">
+        <v>2023</v>
       </c>
       <c r="C24" t="s">
-        <v>342</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
         <v>480</v>
@@ -2719,11 +847,11 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>27</v>
+      <c r="B25">
+        <v>2023</v>
       </c>
       <c r="C25" t="s">
-        <v>343</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
         <v>331.59</v>
@@ -2736,11 +864,11 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>28</v>
+      <c r="B26">
+        <v>2023</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <v>86</v>
@@ -2753,11 +881,11 @@
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>29</v>
+      <c r="B27">
+        <v>2023</v>
       </c>
       <c r="C27" t="s">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
         <v>786</v>
@@ -2770,11 +898,11 @@
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>30</v>
+      <c r="B28">
+        <v>2023</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
         <v>69.34999999999999</v>
@@ -2787,11 +915,11 @@
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
+      <c r="B29">
+        <v>2023</v>
       </c>
       <c r="C29" t="s">
-        <v>346</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
         <v>66</v>
@@ -2804,11 +932,11 @@
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
+      <c r="B30">
+        <v>2023</v>
       </c>
       <c r="C30" t="s">
-        <v>347</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
         <v>429.3</v>
@@ -2821,11 +949,11 @@
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>33</v>
+      <c r="B31">
+        <v>2023</v>
       </c>
       <c r="C31" t="s">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
         <v>159.97</v>
@@ -2838,11 +966,11 @@
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>34</v>
+      <c r="B32">
+        <v>2023</v>
       </c>
       <c r="C32" t="s">
-        <v>349</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
         <v>4935.6</v>
@@ -2855,11 +983,11 @@
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>35</v>
+      <c r="B33">
+        <v>2023</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <v>343.2</v>
@@ -2872,11 +1000,11 @@
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>36</v>
+      <c r="B34">
+        <v>2023</v>
       </c>
       <c r="C34" t="s">
-        <v>350</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1">
         <v>92</v>
@@ -2889,11 +1017,11 @@
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>37</v>
+      <c r="B35">
+        <v>2023</v>
       </c>
       <c r="C35" t="s">
-        <v>351</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <v>41</v>
@@ -2906,11 +1034,11 @@
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>38</v>
+      <c r="B36">
+        <v>2023</v>
       </c>
       <c r="C36" t="s">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <v>80.8</v>
@@ -2923,11 +1051,11 @@
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>39</v>
+      <c r="B37">
+        <v>2023</v>
       </c>
       <c r="C37" t="s">
-        <v>353</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <v>523.3</v>
@@ -2940,11 +1068,11 @@
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>40</v>
+      <c r="B38">
+        <v>2023</v>
       </c>
       <c r="C38" t="s">
-        <v>354</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
         <v>155.4</v>
@@ -2957,11 +1085,11 @@
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>41</v>
+      <c r="B39">
+        <v>2023</v>
       </c>
       <c r="C39" t="s">
-        <v>347</v>
+        <v>5</v>
       </c>
       <c r="D39" s="1">
         <v>385</v>
@@ -2974,11 +1102,11 @@
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>42</v>
+      <c r="B40">
+        <v>2023</v>
       </c>
       <c r="C40" t="s">
-        <v>355</v>
+        <v>5</v>
       </c>
       <c r="D40" s="1">
         <v>238</v>
@@ -2991,11 +1119,11 @@
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>43</v>
+      <c r="B41">
+        <v>2023</v>
       </c>
       <c r="C41" t="s">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1">
         <v>200</v>
@@ -3008,11 +1136,11 @@
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>44</v>
+      <c r="B42">
+        <v>2023</v>
       </c>
       <c r="C42" t="s">
-        <v>357</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1">
         <v>481.9</v>
@@ -3025,11 +1153,11 @@
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>45</v>
+      <c r="B43">
+        <v>2023</v>
       </c>
       <c r="C43" t="s">
-        <v>358</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1">
         <v>39</v>
@@ -3042,11 +1170,11 @@
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>46</v>
+      <c r="B44">
+        <v>2023</v>
       </c>
       <c r="C44" t="s">
-        <v>359</v>
+        <v>5</v>
       </c>
       <c r="D44" s="1">
         <v>536.71</v>
@@ -3059,11 +1187,11 @@
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>47</v>
+      <c r="B45">
+        <v>2023</v>
       </c>
       <c r="C45" t="s">
-        <v>347</v>
+        <v>5</v>
       </c>
       <c r="D45" s="1">
         <v>1194.98</v>
@@ -3076,11 +1204,11 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>48</v>
+      <c r="B46">
+        <v>2023</v>
       </c>
       <c r="C46" t="s">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="D46" s="1">
         <v>25.9</v>
@@ -3093,11 +1221,11 @@
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>49</v>
+      <c r="B47">
+        <v>2023</v>
       </c>
       <c r="C47" t="s">
-        <v>361</v>
+        <v>5</v>
       </c>
       <c r="D47" s="1">
         <v>219.5</v>
@@ -3110,11 +1238,11 @@
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>50</v>
+      <c r="B48">
+        <v>2023</v>
       </c>
       <c r="C48" t="s">
-        <v>362</v>
+        <v>5</v>
       </c>
       <c r="D48" s="1">
         <v>115.45</v>
@@ -3127,11 +1255,11 @@
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>51</v>
+      <c r="B49">
+        <v>2023</v>
       </c>
       <c r="C49" t="s">
-        <v>363</v>
+        <v>5</v>
       </c>
       <c r="D49" s="1">
         <v>123</v>
@@ -3144,11 +1272,11 @@
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>52</v>
+      <c r="B50">
+        <v>2023</v>
       </c>
       <c r="C50" t="s">
-        <v>364</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1">
         <v>88</v>
@@ -3161,11 +1289,11 @@
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>53</v>
+      <c r="B51">
+        <v>2023</v>
       </c>
       <c r="C51" t="s">
-        <v>365</v>
+        <v>5</v>
       </c>
       <c r="D51" s="1">
         <v>52.9</v>
@@ -3178,11 +1306,11 @@
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>54</v>
+      <c r="B52">
+        <v>2023</v>
       </c>
       <c r="C52" t="s">
-        <v>366</v>
+        <v>5</v>
       </c>
       <c r="D52" s="1">
         <v>456.06</v>
@@ -3195,11 +1323,11 @@
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>55</v>
+      <c r="B53">
+        <v>2023</v>
       </c>
       <c r="C53" t="s">
-        <v>367</v>
+        <v>5</v>
       </c>
       <c r="D53" s="1">
         <v>81.40000000000001</v>
@@ -3212,11 +1340,11 @@
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>56</v>
+      <c r="B54">
+        <v>2023</v>
       </c>
       <c r="C54" t="s">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D54" s="1">
         <v>319.13</v>
@@ -3229,11 +1357,11 @@
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>57</v>
+      <c r="B55">
+        <v>2023</v>
       </c>
       <c r="C55" t="s">
-        <v>369</v>
+        <v>5</v>
       </c>
       <c r="D55" s="1">
         <v>53</v>
@@ -3246,11 +1374,11 @@
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>58</v>
+      <c r="B56">
+        <v>2023</v>
       </c>
       <c r="C56" t="s">
-        <v>370</v>
+        <v>5</v>
       </c>
       <c r="D56" s="1">
         <v>177.3</v>
@@ -3263,11 +1391,11 @@
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>59</v>
+      <c r="B57">
+        <v>2023</v>
       </c>
       <c r="C57" t="s">
-        <v>371</v>
+        <v>5</v>
       </c>
       <c r="D57" s="1">
         <v>26</v>
@@ -3280,11 +1408,11 @@
       <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>60</v>
+      <c r="B58">
+        <v>2023</v>
       </c>
       <c r="C58" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="D58" s="1">
         <v>156.8</v>
@@ -3297,11 +1425,11 @@
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>61</v>
+      <c r="B59">
+        <v>2023</v>
       </c>
       <c r="C59" t="s">
-        <v>373</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1">
         <v>173.7</v>
@@ -3314,11 +1442,11 @@
       <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>62</v>
+      <c r="B60">
+        <v>2023</v>
       </c>
       <c r="C60" t="s">
-        <v>374</v>
+        <v>6</v>
       </c>
       <c r="D60" s="1">
         <v>4838.9</v>
@@ -3331,11 +1459,11 @@
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>63</v>
+      <c r="B61">
+        <v>2023</v>
       </c>
       <c r="C61" t="s">
-        <v>375</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1">
         <v>1570.2</v>
@@ -3348,11 +1476,11 @@
       <c r="A62" s="2">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>64</v>
+      <c r="B62">
+        <v>2023</v>
       </c>
       <c r="C62" t="s">
-        <v>376</v>
+        <v>6</v>
       </c>
       <c r="D62" s="1">
         <v>74.8</v>
@@ -3365,11 +1493,11 @@
       <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>65</v>
+      <c r="B63">
+        <v>2023</v>
       </c>
       <c r="C63" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="D63" s="1">
         <v>261.4</v>
@@ -3382,11 +1510,11 @@
       <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>66</v>
+      <c r="B64">
+        <v>2023</v>
       </c>
       <c r="C64" t="s">
-        <v>325</v>
+        <v>6</v>
       </c>
       <c r="D64" s="1">
         <v>43</v>
@@ -3399,11 +1527,11 @@
       <c r="A65" s="2">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>67</v>
+      <c r="B65">
+        <v>2023</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>6</v>
       </c>
       <c r="D65" s="1">
         <v>483.2</v>
@@ -3416,11 +1544,11 @@
       <c r="A66" s="2">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>68</v>
+      <c r="B66">
+        <v>2023</v>
       </c>
       <c r="C66" t="s">
-        <v>379</v>
+        <v>6</v>
       </c>
       <c r="D66" s="1">
         <v>107.4</v>
@@ -3433,11 +1561,11 @@
       <c r="A67" s="2">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>69</v>
+      <c r="B67">
+        <v>2023</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>6</v>
       </c>
       <c r="D67" s="1">
         <v>797.8</v>
@@ -3450,11 +1578,11 @@
       <c r="A68" s="2">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>70</v>
+      <c r="B68">
+        <v>2023</v>
       </c>
       <c r="C68" t="s">
-        <v>381</v>
+        <v>6</v>
       </c>
       <c r="D68" s="1">
         <v>579</v>
@@ -3467,11 +1595,11 @@
       <c r="A69" s="2">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>71</v>
+      <c r="B69">
+        <v>2023</v>
       </c>
       <c r="C69" t="s">
-        <v>382</v>
+        <v>6</v>
       </c>
       <c r="D69" s="1">
         <v>726.0599999999999</v>
@@ -3484,11 +1612,11 @@
       <c r="A70" s="2">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>72</v>
+      <c r="B70">
+        <v>2023</v>
       </c>
       <c r="C70" t="s">
-        <v>383</v>
+        <v>6</v>
       </c>
       <c r="D70" s="1">
         <v>37</v>
@@ -3501,11 +1629,11 @@
       <c r="A71" s="2">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>73</v>
+      <c r="B71">
+        <v>2023</v>
       </c>
       <c r="C71" t="s">
-        <v>384</v>
+        <v>6</v>
       </c>
       <c r="D71" s="1">
         <v>480.3</v>
@@ -3518,11 +1646,11 @@
       <c r="A72" s="2">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>74</v>
+      <c r="B72">
+        <v>2023</v>
       </c>
       <c r="C72" t="s">
-        <v>385</v>
+        <v>6</v>
       </c>
       <c r="D72" s="1">
         <v>47</v>
@@ -3535,11 +1663,11 @@
       <c r="A73" s="2">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>75</v>
+      <c r="B73">
+        <v>2023</v>
       </c>
       <c r="C73" t="s">
-        <v>386</v>
+        <v>6</v>
       </c>
       <c r="D73" s="1">
         <v>359</v>
@@ -3552,11 +1680,11 @@
       <c r="A74" s="2">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>76</v>
+      <c r="B74">
+        <v>2023</v>
       </c>
       <c r="C74" t="s">
-        <v>387</v>
+        <v>6</v>
       </c>
       <c r="D74" s="1">
         <v>1680</v>
@@ -3569,11 +1697,11 @@
       <c r="A75" s="2">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>77</v>
+      <c r="B75">
+        <v>2023</v>
       </c>
       <c r="C75" t="s">
-        <v>388</v>
+        <v>6</v>
       </c>
       <c r="D75" s="1">
         <v>2325.15</v>
@@ -3586,11 +1714,11 @@
       <c r="A76" s="2">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>78</v>
+      <c r="B76">
+        <v>2023</v>
       </c>
       <c r="C76" t="s">
-        <v>389</v>
+        <v>6</v>
       </c>
       <c r="D76" s="1">
         <v>150</v>
@@ -3603,11 +1731,11 @@
       <c r="A77" s="2">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>79</v>
+      <c r="B77">
+        <v>2023</v>
       </c>
       <c r="C77" t="s">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="D77" s="1">
         <v>22</v>
@@ -3620,11 +1748,11 @@
       <c r="A78" s="2">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>80</v>
+      <c r="B78">
+        <v>2023</v>
       </c>
       <c r="C78" t="s">
-        <v>391</v>
+        <v>6</v>
       </c>
       <c r="D78" s="1">
         <v>35</v>
@@ -3637,11 +1765,11 @@
       <c r="A79" s="2">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>81</v>
+      <c r="B79">
+        <v>2023</v>
       </c>
       <c r="C79" t="s">
-        <v>392</v>
+        <v>6</v>
       </c>
       <c r="D79" s="1">
         <v>157.66</v>
@@ -3654,11 +1782,11 @@
       <c r="A80" s="2">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>82</v>
+      <c r="B80">
+        <v>2023</v>
       </c>
       <c r="C80" t="s">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="D80" s="1">
         <v>22</v>
@@ -3671,11 +1799,11 @@
       <c r="A81" s="2">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>83</v>
+      <c r="B81">
+        <v>2023</v>
       </c>
       <c r="C81" t="s">
-        <v>389</v>
+        <v>6</v>
       </c>
       <c r="D81" s="1">
         <v>150</v>
@@ -3688,11 +1816,11 @@
       <c r="A82" s="2">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>84</v>
+      <c r="B82">
+        <v>2023</v>
       </c>
       <c r="C82" t="s">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="D82" s="1">
         <v>400.9</v>
@@ -3705,11 +1833,11 @@
       <c r="A83" s="2">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>85</v>
+      <c r="B83">
+        <v>2023</v>
       </c>
       <c r="C83" t="s">
-        <v>393</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1">
         <v>690.5599999999999</v>
@@ -3722,11 +1850,11 @@
       <c r="A84" s="2">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>86</v>
+      <c r="B84">
+        <v>2024</v>
       </c>
       <c r="C84" t="s">
-        <v>394</v>
+        <v>7</v>
       </c>
       <c r="D84" s="1">
         <v>4911</v>
@@ -3739,11 +1867,11 @@
       <c r="A85" s="2">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>87</v>
+      <c r="B85">
+        <v>2024</v>
       </c>
       <c r="C85" t="s">
-        <v>395</v>
+        <v>7</v>
       </c>
       <c r="D85" s="1">
         <v>37</v>
@@ -3756,11 +1884,11 @@
       <c r="A86" s="2">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>88</v>
+      <c r="B86">
+        <v>2024</v>
       </c>
       <c r="C86" t="s">
-        <v>396</v>
+        <v>7</v>
       </c>
       <c r="D86" s="1">
         <v>119.15</v>
@@ -3773,11 +1901,11 @@
       <c r="A87" s="2">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>89</v>
+      <c r="B87">
+        <v>2024</v>
       </c>
       <c r="C87" t="s">
-        <v>397</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1">
         <v>74</v>
@@ -3790,11 +1918,11 @@
       <c r="A88" s="2">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>90</v>
+      <c r="B88">
+        <v>2024</v>
       </c>
       <c r="C88" t="s">
-        <v>398</v>
+        <v>7</v>
       </c>
       <c r="D88" s="1">
         <v>95</v>
@@ -3807,11 +1935,11 @@
       <c r="A89" s="2">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>91</v>
+      <c r="B89">
+        <v>2024</v>
       </c>
       <c r="C89" t="s">
-        <v>399</v>
+        <v>7</v>
       </c>
       <c r="D89" s="1">
         <v>788.5999999999999</v>
@@ -3824,11 +1952,11 @@
       <c r="A90" s="2">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>92</v>
+      <c r="B90">
+        <v>2024</v>
       </c>
       <c r="C90" t="s">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="D90" s="1">
         <v>955.1</v>
@@ -3841,11 +1969,11 @@
       <c r="A91" s="2">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>93</v>
+      <c r="B91">
+        <v>2024</v>
       </c>
       <c r="C91" t="s">
-        <v>401</v>
+        <v>7</v>
       </c>
       <c r="D91" s="1">
         <v>133.8</v>
@@ -3858,11 +1986,11 @@
       <c r="A92" s="2">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>94</v>
+      <c r="B92">
+        <v>2024</v>
       </c>
       <c r="C92" t="s">
-        <v>402</v>
+        <v>7</v>
       </c>
       <c r="D92" s="1">
         <v>63</v>
@@ -3875,11 +2003,11 @@
       <c r="A93" s="2">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>95</v>
+      <c r="B93">
+        <v>2024</v>
       </c>
       <c r="C93" t="s">
-        <v>403</v>
+        <v>7</v>
       </c>
       <c r="D93" s="1">
         <v>1581.5</v>
@@ -3892,11 +2020,11 @@
       <c r="A94" s="2">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>96</v>
+      <c r="B94">
+        <v>2024</v>
       </c>
       <c r="C94" t="s">
-        <v>404</v>
+        <v>7</v>
       </c>
       <c r="D94" s="1">
         <v>3507</v>
@@ -3909,11 +2037,11 @@
       <c r="A95" s="2">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>97</v>
+      <c r="B95">
+        <v>2024</v>
       </c>
       <c r="C95" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
       <c r="D95" s="1">
         <v>206</v>
@@ -3926,11 +2054,11 @@
       <c r="A96" s="2">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>98</v>
+      <c r="B96">
+        <v>2024</v>
       </c>
       <c r="C96" t="s">
-        <v>406</v>
+        <v>7</v>
       </c>
       <c r="D96" s="1">
         <v>264.7</v>
@@ -3943,11 +2071,11 @@
       <c r="A97" s="2">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>99</v>
+      <c r="B97">
+        <v>2024</v>
       </c>
       <c r="C97" t="s">
-        <v>407</v>
+        <v>7</v>
       </c>
       <c r="D97" s="1">
         <v>216.86</v>
@@ -3960,11 +2088,11 @@
       <c r="A98" s="2">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>100</v>
+      <c r="B98">
+        <v>2024</v>
       </c>
       <c r="C98" t="s">
-        <v>408</v>
+        <v>7</v>
       </c>
       <c r="D98" s="1">
         <v>756.5</v>
@@ -3977,11 +2105,11 @@
       <c r="A99" s="2">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
-        <v>101</v>
+      <c r="B99">
+        <v>2024</v>
       </c>
       <c r="C99" t="s">
-        <v>409</v>
+        <v>7</v>
       </c>
       <c r="D99" s="1">
         <v>26.9</v>
@@ -3994,11 +2122,11 @@
       <c r="A100" s="2">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>102</v>
+      <c r="B100">
+        <v>2024</v>
       </c>
       <c r="C100" t="s">
-        <v>410</v>
+        <v>7</v>
       </c>
       <c r="D100" s="1">
         <v>64</v>
@@ -4011,11 +2139,11 @@
       <c r="A101" s="2">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>103</v>
+      <c r="B101">
+        <v>2024</v>
       </c>
       <c r="C101" t="s">
-        <v>411</v>
+        <v>7</v>
       </c>
       <c r="D101" s="1">
         <v>200</v>
@@ -4028,11 +2156,11 @@
       <c r="A102" s="2">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>104</v>
+      <c r="B102">
+        <v>2024</v>
       </c>
       <c r="C102" t="s">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="D102" s="1">
         <v>112.3</v>
@@ -4045,11 +2173,11 @@
       <c r="A103" s="2">
         <v>101</v>
       </c>
-      <c r="B103" t="s">
-        <v>105</v>
+      <c r="B103">
+        <v>2024</v>
       </c>
       <c r="C103" t="s">
-        <v>413</v>
+        <v>7</v>
       </c>
       <c r="D103" s="1">
         <v>1303.34</v>
@@ -4062,11 +2190,11 @@
       <c r="A104" s="2">
         <v>102</v>
       </c>
-      <c r="B104" t="s">
-        <v>106</v>
+      <c r="B104">
+        <v>2024</v>
       </c>
       <c r="C104" t="s">
-        <v>414</v>
+        <v>7</v>
       </c>
       <c r="D104" s="1">
         <v>444.8</v>
@@ -4079,11 +2207,11 @@
       <c r="A105" s="2">
         <v>103</v>
       </c>
-      <c r="B105" t="s">
-        <v>107</v>
+      <c r="B105">
+        <v>2024</v>
       </c>
       <c r="C105" t="s">
-        <v>415</v>
+        <v>7</v>
       </c>
       <c r="D105" s="1">
         <v>116.8</v>
@@ -4096,11 +2224,11 @@
       <c r="A106" s="2">
         <v>104</v>
       </c>
-      <c r="B106" t="s">
-        <v>108</v>
+      <c r="B106">
+        <v>2024</v>
       </c>
       <c r="C106" t="s">
-        <v>416</v>
+        <v>7</v>
       </c>
       <c r="D106" s="1">
         <v>163.55</v>
@@ -4113,11 +2241,11 @@
       <c r="A107" s="2">
         <v>105</v>
       </c>
-      <c r="B107" t="s">
-        <v>109</v>
+      <c r="B107">
+        <v>2024</v>
       </c>
       <c r="C107" t="s">
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="D107" s="1">
         <v>267.5</v>
@@ -4130,11 +2258,11 @@
       <c r="A108" s="2">
         <v>106</v>
       </c>
-      <c r="B108" t="s">
-        <v>110</v>
+      <c r="B108">
+        <v>2024</v>
       </c>
       <c r="C108" t="s">
-        <v>417</v>
+        <v>7</v>
       </c>
       <c r="D108" s="1">
         <v>2638.4</v>
@@ -4147,11 +2275,11 @@
       <c r="A109" s="2">
         <v>107</v>
       </c>
-      <c r="B109" t="s">
-        <v>111</v>
+      <c r="B109">
+        <v>2024</v>
       </c>
       <c r="C109" t="s">
-        <v>418</v>
+        <v>7</v>
       </c>
       <c r="D109" s="1">
         <v>369</v>
@@ -4164,11 +2292,11 @@
       <c r="A110" s="2">
         <v>108</v>
       </c>
-      <c r="B110" t="s">
-        <v>112</v>
+      <c r="B110">
+        <v>2024</v>
       </c>
       <c r="C110" t="s">
-        <v>419</v>
+        <v>7</v>
       </c>
       <c r="D110" s="1">
         <v>107.8</v>
@@ -4181,11 +2309,11 @@
       <c r="A111" s="2">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
-        <v>113</v>
+      <c r="B111">
+        <v>2024</v>
       </c>
       <c r="C111" t="s">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1">
         <v>4660.9</v>
@@ -4198,11 +2326,11 @@
       <c r="A112" s="2">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>114</v>
+      <c r="B112">
+        <v>2024</v>
       </c>
       <c r="C112" t="s">
-        <v>421</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1">
         <v>316.86</v>
@@ -4215,11 +2343,11 @@
       <c r="A113" s="2">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>115</v>
+      <c r="B113">
+        <v>2024</v>
       </c>
       <c r="C113" t="s">
-        <v>422</v>
+        <v>8</v>
       </c>
       <c r="D113" s="1">
         <v>67.90000000000001</v>
@@ -4232,11 +2360,11 @@
       <c r="A114" s="2">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
-        <v>116</v>
+      <c r="B114">
+        <v>2024</v>
       </c>
       <c r="C114" t="s">
-        <v>423</v>
+        <v>8</v>
       </c>
       <c r="D114" s="1">
         <v>92.5</v>
@@ -4249,11 +2377,11 @@
       <c r="A115" s="2">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
-        <v>117</v>
+      <c r="B115">
+        <v>2024</v>
       </c>
       <c r="C115" t="s">
-        <v>424</v>
+        <v>8</v>
       </c>
       <c r="D115" s="1">
         <v>39</v>
@@ -4266,11 +2394,11 @@
       <c r="A116" s="2">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
-        <v>118</v>
+      <c r="B116">
+        <v>2024</v>
       </c>
       <c r="C116" t="s">
-        <v>425</v>
+        <v>8</v>
       </c>
       <c r="D116" s="1">
         <v>233</v>
@@ -4283,11 +2411,11 @@
       <c r="A117" s="2">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>119</v>
+      <c r="B117">
+        <v>2024</v>
       </c>
       <c r="C117" t="s">
-        <v>426</v>
+        <v>8</v>
       </c>
       <c r="D117" s="1">
         <v>194.7</v>
@@ -4300,11 +2428,11 @@
       <c r="A118" s="2">
         <v>116</v>
       </c>
-      <c r="B118" t="s">
-        <v>120</v>
+      <c r="B118">
+        <v>2024</v>
       </c>
       <c r="C118" t="s">
-        <v>427</v>
+        <v>8</v>
       </c>
       <c r="D118" s="1">
         <v>116.5</v>
@@ -4317,11 +2445,11 @@
       <c r="A119" s="2">
         <v>117</v>
       </c>
-      <c r="B119" t="s">
-        <v>121</v>
+      <c r="B119">
+        <v>2024</v>
       </c>
       <c r="C119" t="s">
-        <v>428</v>
+        <v>8</v>
       </c>
       <c r="D119" s="1">
         <v>826.1</v>
@@ -4334,11 +2462,11 @@
       <c r="A120" s="2">
         <v>118</v>
       </c>
-      <c r="B120" t="s">
-        <v>122</v>
+      <c r="B120">
+        <v>2024</v>
       </c>
       <c r="C120" t="s">
-        <v>429</v>
+        <v>8</v>
       </c>
       <c r="D120" s="1">
         <v>48.4</v>
@@ -4351,11 +2479,11 @@
       <c r="A121" s="2">
         <v>119</v>
       </c>
-      <c r="B121" t="s">
-        <v>123</v>
+      <c r="B121">
+        <v>2024</v>
       </c>
       <c r="C121" t="s">
-        <v>430</v>
+        <v>8</v>
       </c>
       <c r="D121" s="1">
         <v>27842.2</v>
@@ -4368,11 +2496,11 @@
       <c r="A122" s="2">
         <v>120</v>
       </c>
-      <c r="B122" t="s">
-        <v>124</v>
+      <c r="B122">
+        <v>2024</v>
       </c>
       <c r="C122" t="s">
-        <v>431</v>
+        <v>8</v>
       </c>
       <c r="D122" s="1">
         <v>406.99</v>
@@ -4385,11 +2513,11 @@
       <c r="A123" s="2">
         <v>121</v>
       </c>
-      <c r="B123" t="s">
-        <v>125</v>
+      <c r="B123">
+        <v>2024</v>
       </c>
       <c r="C123" t="s">
-        <v>325</v>
+        <v>8</v>
       </c>
       <c r="D123" s="1">
         <v>46</v>
@@ -4402,11 +2530,11 @@
       <c r="A124" s="2">
         <v>122</v>
       </c>
-      <c r="B124" t="s">
-        <v>126</v>
+      <c r="B124">
+        <v>2024</v>
       </c>
       <c r="C124" t="s">
-        <v>432</v>
+        <v>8</v>
       </c>
       <c r="D124" s="1">
         <v>39</v>
@@ -4419,11 +2547,11 @@
       <c r="A125" s="2">
         <v>123</v>
       </c>
-      <c r="B125" t="s">
-        <v>127</v>
+      <c r="B125">
+        <v>2024</v>
       </c>
       <c r="C125" t="s">
-        <v>433</v>
+        <v>8</v>
       </c>
       <c r="D125" s="1">
         <v>71.90000000000001</v>
@@ -4436,11 +2564,11 @@
       <c r="A126" s="2">
         <v>124</v>
       </c>
-      <c r="B126" t="s">
-        <v>128</v>
+      <c r="B126">
+        <v>2024</v>
       </c>
       <c r="C126" t="s">
-        <v>434</v>
+        <v>8</v>
       </c>
       <c r="D126" s="1">
         <v>1459.1</v>
@@ -4453,11 +2581,11 @@
       <c r="A127" s="2">
         <v>125</v>
       </c>
-      <c r="B127" t="s">
-        <v>129</v>
+      <c r="B127">
+        <v>2024</v>
       </c>
       <c r="C127" t="s">
-        <v>435</v>
+        <v>8</v>
       </c>
       <c r="D127" s="1">
         <v>156.3</v>
@@ -4470,11 +2598,11 @@
       <c r="A128" s="2">
         <v>126</v>
       </c>
-      <c r="B128" t="s">
-        <v>130</v>
+      <c r="B128">
+        <v>2024</v>
       </c>
       <c r="C128" t="s">
-        <v>436</v>
+        <v>8</v>
       </c>
       <c r="D128" s="1">
         <v>1147.8</v>
@@ -4487,11 +2615,11 @@
       <c r="A129" s="2">
         <v>127</v>
       </c>
-      <c r="B129" t="s">
-        <v>131</v>
+      <c r="B129">
+        <v>2024</v>
       </c>
       <c r="C129" t="s">
-        <v>437</v>
+        <v>8</v>
       </c>
       <c r="D129" s="1">
         <v>276.2</v>
@@ -4504,11 +2632,11 @@
       <c r="A130" s="2">
         <v>128</v>
       </c>
-      <c r="B130" t="s">
-        <v>132</v>
+      <c r="B130">
+        <v>2024</v>
       </c>
       <c r="C130" t="s">
-        <v>438</v>
+        <v>8</v>
       </c>
       <c r="D130" s="1">
         <v>193.3</v>
@@ -4521,11 +2649,11 @@
       <c r="A131" s="2">
         <v>129</v>
       </c>
-      <c r="B131" t="s">
-        <v>133</v>
+      <c r="B131">
+        <v>2024</v>
       </c>
       <c r="C131" t="s">
-        <v>439</v>
+        <v>8</v>
       </c>
       <c r="D131" s="1">
         <v>117.9</v>
@@ -4538,11 +2666,11 @@
       <c r="A132" s="2">
         <v>130</v>
       </c>
-      <c r="B132" t="s">
-        <v>134</v>
+      <c r="B132">
+        <v>2024</v>
       </c>
       <c r="C132" t="s">
-        <v>440</v>
+        <v>8</v>
       </c>
       <c r="D132" s="1">
         <v>162.4</v>
@@ -4555,11 +2683,11 @@
       <c r="A133" s="2">
         <v>131</v>
       </c>
-      <c r="B133" t="s">
-        <v>135</v>
+      <c r="B133">
+        <v>2024</v>
       </c>
       <c r="C133" t="s">
-        <v>441</v>
+        <v>8</v>
       </c>
       <c r="D133" s="1">
         <v>73.90000000000001</v>
@@ -4572,11 +2700,11 @@
       <c r="A134" s="2">
         <v>132</v>
       </c>
-      <c r="B134" t="s">
-        <v>136</v>
+      <c r="B134">
+        <v>2024</v>
       </c>
       <c r="C134" t="s">
-        <v>442</v>
+        <v>8</v>
       </c>
       <c r="D134" s="1">
         <v>197.86</v>
@@ -4589,11 +2717,11 @@
       <c r="A135" s="2">
         <v>133</v>
       </c>
-      <c r="B135" t="s">
-        <v>137</v>
+      <c r="B135">
+        <v>2024</v>
       </c>
       <c r="C135" t="s">
-        <v>443</v>
+        <v>8</v>
       </c>
       <c r="D135" s="1">
         <v>174.3</v>
@@ -4606,11 +2734,11 @@
       <c r="A136" s="2">
         <v>134</v>
       </c>
-      <c r="B136" t="s">
-        <v>138</v>
+      <c r="B136">
+        <v>2024</v>
       </c>
       <c r="C136" t="s">
-        <v>444</v>
+        <v>8</v>
       </c>
       <c r="D136" s="1">
         <v>39</v>
@@ -4623,11 +2751,11 @@
       <c r="A137" s="2">
         <v>135</v>
       </c>
-      <c r="B137" t="s">
-        <v>139</v>
+      <c r="B137">
+        <v>2024</v>
       </c>
       <c r="C137" t="s">
-        <v>445</v>
+        <v>8</v>
       </c>
       <c r="D137" s="1">
         <v>196.6</v>
@@ -4640,11 +2768,11 @@
       <c r="A138" s="2">
         <v>136</v>
       </c>
-      <c r="B138" t="s">
-        <v>140</v>
+      <c r="B138">
+        <v>2024</v>
       </c>
       <c r="C138" t="s">
-        <v>446</v>
+        <v>8</v>
       </c>
       <c r="D138" s="1">
         <v>195.9</v>
@@ -4657,11 +2785,11 @@
       <c r="A139" s="2">
         <v>137</v>
       </c>
-      <c r="B139" t="s">
-        <v>141</v>
+      <c r="B139">
+        <v>2024</v>
       </c>
       <c r="C139" t="s">
-        <v>447</v>
+        <v>9</v>
       </c>
       <c r="D139" s="1">
         <v>5313</v>
@@ -4674,11 +2802,11 @@
       <c r="A140" s="2">
         <v>138</v>
       </c>
-      <c r="B140" t="s">
-        <v>142</v>
+      <c r="B140">
+        <v>2024</v>
       </c>
       <c r="C140" t="s">
-        <v>448</v>
+        <v>9</v>
       </c>
       <c r="D140" s="1">
         <v>252.7</v>
@@ -4691,11 +2819,11 @@
       <c r="A141" s="2">
         <v>139</v>
       </c>
-      <c r="B141" t="s">
-        <v>143</v>
+      <c r="B141">
+        <v>2024</v>
       </c>
       <c r="C141" t="s">
-        <v>449</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1">
         <v>68.8</v>
@@ -4708,11 +2836,11 @@
       <c r="A142" s="2">
         <v>140</v>
       </c>
-      <c r="B142" t="s">
-        <v>144</v>
+      <c r="B142">
+        <v>2024</v>
       </c>
       <c r="C142" t="s">
-        <v>450</v>
+        <v>9</v>
       </c>
       <c r="D142" s="1">
         <v>110.8</v>
@@ -4725,11 +2853,11 @@
       <c r="A143" s="2">
         <v>141</v>
       </c>
-      <c r="B143" t="s">
-        <v>145</v>
+      <c r="B143">
+        <v>2024</v>
       </c>
       <c r="C143" t="s">
-        <v>451</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1">
         <v>26</v>
@@ -4742,11 +2870,11 @@
       <c r="A144" s="2">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
-        <v>146</v>
+      <c r="B144">
+        <v>2024</v>
       </c>
       <c r="C144" t="s">
-        <v>452</v>
+        <v>9</v>
       </c>
       <c r="D144" s="1">
         <v>342.1</v>
@@ -4759,11 +2887,11 @@
       <c r="A145" s="2">
         <v>143</v>
       </c>
-      <c r="B145" t="s">
-        <v>147</v>
+      <c r="B145">
+        <v>2024</v>
       </c>
       <c r="C145" t="s">
-        <v>453</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1">
         <v>955.85</v>
@@ -4776,11 +2904,11 @@
       <c r="A146" s="2">
         <v>144</v>
       </c>
-      <c r="B146" t="s">
-        <v>148</v>
+      <c r="B146">
+        <v>2024</v>
       </c>
       <c r="C146" t="s">
-        <v>454</v>
+        <v>9</v>
       </c>
       <c r="D146" s="1">
         <v>1004.75</v>
@@ -4793,11 +2921,11 @@
       <c r="A147" s="2">
         <v>145</v>
       </c>
-      <c r="B147" t="s">
-        <v>149</v>
+      <c r="B147">
+        <v>2024</v>
       </c>
       <c r="C147" t="s">
-        <v>455</v>
+        <v>9</v>
       </c>
       <c r="D147" s="1">
         <v>1121.99</v>
@@ -4810,11 +2938,11 @@
       <c r="A148" s="2">
         <v>146</v>
       </c>
-      <c r="B148" t="s">
-        <v>150</v>
+      <c r="B148">
+        <v>2024</v>
       </c>
       <c r="C148" t="s">
-        <v>456</v>
+        <v>9</v>
       </c>
       <c r="D148" s="1">
         <v>1769.78</v>
@@ -4827,11 +2955,11 @@
       <c r="A149" s="2">
         <v>147</v>
       </c>
-      <c r="B149" t="s">
-        <v>151</v>
+      <c r="B149">
+        <v>2024</v>
       </c>
       <c r="C149" t="s">
-        <v>457</v>
+        <v>9</v>
       </c>
       <c r="D149" s="1">
         <v>186.7</v>
@@ -4844,11 +2972,11 @@
       <c r="A150" s="2">
         <v>148</v>
       </c>
-      <c r="B150" t="s">
-        <v>152</v>
+      <c r="B150">
+        <v>2024</v>
       </c>
       <c r="C150" t="s">
-        <v>458</v>
+        <v>9</v>
       </c>
       <c r="D150" s="1">
         <v>26</v>
@@ -4861,11 +2989,11 @@
       <c r="A151" s="2">
         <v>149</v>
       </c>
-      <c r="B151" t="s">
-        <v>153</v>
+      <c r="B151">
+        <v>2024</v>
       </c>
       <c r="C151" t="s">
-        <v>459</v>
+        <v>9</v>
       </c>
       <c r="D151" s="1">
         <v>134</v>
@@ -4878,11 +3006,11 @@
       <c r="A152" s="2">
         <v>150</v>
       </c>
-      <c r="B152" t="s">
-        <v>154</v>
+      <c r="B152">
+        <v>2024</v>
       </c>
       <c r="C152" t="s">
-        <v>460</v>
+        <v>9</v>
       </c>
       <c r="D152" s="1">
         <v>568</v>
@@ -4895,11 +3023,11 @@
       <c r="A153" s="2">
         <v>151</v>
       </c>
-      <c r="B153" t="s">
-        <v>155</v>
+      <c r="B153">
+        <v>2024</v>
       </c>
       <c r="C153" t="s">
-        <v>461</v>
+        <v>9</v>
       </c>
       <c r="D153" s="1">
         <v>344.7</v>
@@ -4912,11 +3040,11 @@
       <c r="A154" s="2">
         <v>152</v>
       </c>
-      <c r="B154" t="s">
-        <v>156</v>
+      <c r="B154">
+        <v>2024</v>
       </c>
       <c r="C154" t="s">
-        <v>462</v>
+        <v>9</v>
       </c>
       <c r="D154" s="1">
         <v>537.23</v>
@@ -4929,11 +3057,11 @@
       <c r="A155" s="2">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>157</v>
+      <c r="B155">
+        <v>2024</v>
       </c>
       <c r="C155" t="s">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="D155" s="1">
         <v>903.6999999999999</v>
@@ -4946,11 +3074,11 @@
       <c r="A156" s="2">
         <v>154</v>
       </c>
-      <c r="B156" t="s">
-        <v>158</v>
+      <c r="B156">
+        <v>2024</v>
       </c>
       <c r="C156" t="s">
-        <v>464</v>
+        <v>9</v>
       </c>
       <c r="D156" s="1">
         <v>112.9</v>
@@ -4963,11 +3091,11 @@
       <c r="A157" s="2">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
-        <v>159</v>
+      <c r="B157">
+        <v>2024</v>
       </c>
       <c r="C157" t="s">
-        <v>465</v>
+        <v>9</v>
       </c>
       <c r="D157" s="1">
         <v>70.06999999999999</v>
@@ -4980,11 +3108,11 @@
       <c r="A158" s="2">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
-        <v>160</v>
+      <c r="B158">
+        <v>2024</v>
       </c>
       <c r="C158" t="s">
-        <v>466</v>
+        <v>9</v>
       </c>
       <c r="D158" s="1">
         <v>889.49</v>
@@ -4997,11 +3125,11 @@
       <c r="A159" s="2">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>161</v>
+      <c r="B159">
+        <v>2024</v>
       </c>
       <c r="C159" t="s">
-        <v>467</v>
+        <v>9</v>
       </c>
       <c r="D159" s="1">
         <v>98.84999999999999</v>
@@ -5014,11 +3142,11 @@
       <c r="A160" s="2">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
-        <v>162</v>
+      <c r="B160">
+        <v>2024</v>
       </c>
       <c r="C160" t="s">
-        <v>468</v>
+        <v>9</v>
       </c>
       <c r="D160" s="1">
         <v>400</v>
@@ -5031,11 +3159,11 @@
       <c r="A161" s="2">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>163</v>
+      <c r="B161">
+        <v>2024</v>
       </c>
       <c r="C161" t="s">
-        <v>469</v>
+        <v>9</v>
       </c>
       <c r="D161" s="1">
         <v>27.9</v>
@@ -5048,11 +3176,11 @@
       <c r="A162" s="2">
         <v>160</v>
       </c>
-      <c r="B162" t="s">
-        <v>164</v>
+      <c r="B162">
+        <v>2024</v>
       </c>
       <c r="C162" t="s">
-        <v>470</v>
+        <v>10</v>
       </c>
       <c r="D162" s="1">
         <v>4638</v>
@@ -5065,11 +3193,11 @@
       <c r="A163" s="2">
         <v>161</v>
       </c>
-      <c r="B163" t="s">
-        <v>165</v>
+      <c r="B163">
+        <v>2024</v>
       </c>
       <c r="C163" t="s">
-        <v>471</v>
+        <v>10</v>
       </c>
       <c r="D163" s="1">
         <v>835.99</v>
@@ -5082,11 +3210,11 @@
       <c r="A164" s="2">
         <v>162</v>
       </c>
-      <c r="B164" t="s">
-        <v>166</v>
+      <c r="B164">
+        <v>2024</v>
       </c>
       <c r="C164" t="s">
-        <v>472</v>
+        <v>10</v>
       </c>
       <c r="D164" s="1">
         <v>356.5</v>
@@ -5099,11 +3227,11 @@
       <c r="A165" s="2">
         <v>163</v>
       </c>
-      <c r="B165" t="s">
-        <v>167</v>
+      <c r="B165">
+        <v>2024</v>
       </c>
       <c r="C165" t="s">
-        <v>473</v>
+        <v>10</v>
       </c>
       <c r="D165" s="1">
         <v>328.78</v>
@@ -5116,11 +3244,11 @@
       <c r="A166" s="2">
         <v>164</v>
       </c>
-      <c r="B166" t="s">
-        <v>168</v>
+      <c r="B166">
+        <v>2024</v>
       </c>
       <c r="C166" t="s">
-        <v>474</v>
+        <v>10</v>
       </c>
       <c r="D166" s="1">
         <v>978.7</v>
@@ -5133,11 +3261,11 @@
       <c r="A167" s="2">
         <v>165</v>
       </c>
-      <c r="B167" t="s">
-        <v>169</v>
+      <c r="B167">
+        <v>2024</v>
       </c>
       <c r="C167" t="s">
-        <v>475</v>
+        <v>10</v>
       </c>
       <c r="D167" s="1">
         <v>327.54</v>
@@ -5150,11 +3278,11 @@
       <c r="A168" s="2">
         <v>166</v>
       </c>
-      <c r="B168" t="s">
-        <v>170</v>
+      <c r="B168">
+        <v>2024</v>
       </c>
       <c r="C168" t="s">
-        <v>476</v>
+        <v>10</v>
       </c>
       <c r="D168" s="1">
         <v>44.9</v>
@@ -5167,11 +3295,11 @@
       <c r="A169" s="2">
         <v>167</v>
       </c>
-      <c r="B169" t="s">
-        <v>171</v>
+      <c r="B169">
+        <v>2024</v>
       </c>
       <c r="C169" t="s">
-        <v>477</v>
+        <v>10</v>
       </c>
       <c r="D169" s="1">
         <v>199.3</v>
@@ -5184,11 +3312,11 @@
       <c r="A170" s="2">
         <v>168</v>
       </c>
-      <c r="B170" t="s">
-        <v>172</v>
+      <c r="B170">
+        <v>2024</v>
       </c>
       <c r="C170" t="s">
-        <v>478</v>
+        <v>10</v>
       </c>
       <c r="D170" s="1">
         <v>65.56</v>
@@ -5201,11 +3329,11 @@
       <c r="A171" s="2">
         <v>169</v>
       </c>
-      <c r="B171" t="s">
-        <v>173</v>
+      <c r="B171">
+        <v>2024</v>
       </c>
       <c r="C171" t="s">
-        <v>347</v>
+        <v>10</v>
       </c>
       <c r="D171" s="1">
         <v>415.3</v>
@@ -5218,11 +3346,11 @@
       <c r="A172" s="2">
         <v>170</v>
       </c>
-      <c r="B172" t="s">
-        <v>174</v>
+      <c r="B172">
+        <v>2024</v>
       </c>
       <c r="C172" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="D172" s="1">
         <v>123.8</v>
@@ -5235,11 +3363,11 @@
       <c r="A173" s="2">
         <v>171</v>
       </c>
-      <c r="B173" t="s">
-        <v>175</v>
+      <c r="B173">
+        <v>2024</v>
       </c>
       <c r="C173" t="s">
-        <v>479</v>
+        <v>10</v>
       </c>
       <c r="D173" s="1">
         <v>53.9</v>
@@ -5252,11 +3380,11 @@
       <c r="A174" s="2">
         <v>172</v>
       </c>
-      <c r="B174" t="s">
-        <v>176</v>
+      <c r="B174">
+        <v>2024</v>
       </c>
       <c r="C174" t="s">
-        <v>480</v>
+        <v>10</v>
       </c>
       <c r="D174" s="1">
         <v>884.8</v>
@@ -5269,11 +3397,11 @@
       <c r="A175" s="2">
         <v>173</v>
       </c>
-      <c r="B175" t="s">
-        <v>177</v>
+      <c r="B175">
+        <v>2024</v>
       </c>
       <c r="C175" t="s">
-        <v>375</v>
+        <v>10</v>
       </c>
       <c r="D175" s="1">
         <v>213</v>
@@ -5286,11 +3414,11 @@
       <c r="A176" s="2">
         <v>174</v>
       </c>
-      <c r="B176" t="s">
-        <v>178</v>
+      <c r="B176">
+        <v>2024</v>
       </c>
       <c r="C176" t="s">
-        <v>481</v>
+        <v>10</v>
       </c>
       <c r="D176" s="1">
         <v>1765.2</v>
@@ -5303,11 +3431,11 @@
       <c r="A177" s="2">
         <v>175</v>
       </c>
-      <c r="B177" t="s">
-        <v>179</v>
+      <c r="B177">
+        <v>2024</v>
       </c>
       <c r="C177" t="s">
-        <v>482</v>
+        <v>10</v>
       </c>
       <c r="D177" s="1">
         <v>15</v>
@@ -5320,11 +3448,11 @@
       <c r="A178" s="2">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
-        <v>180</v>
+      <c r="B178">
+        <v>2024</v>
       </c>
       <c r="C178" t="s">
-        <v>483</v>
+        <v>10</v>
       </c>
       <c r="D178" s="1">
         <v>215.4</v>
@@ -5337,11 +3465,11 @@
       <c r="A179" s="2">
         <v>177</v>
       </c>
-      <c r="B179" t="s">
-        <v>181</v>
+      <c r="B179">
+        <v>2024</v>
       </c>
       <c r="C179" t="s">
-        <v>484</v>
+        <v>10</v>
       </c>
       <c r="D179" s="1">
         <v>16</v>
@@ -5354,11 +3482,11 @@
       <c r="A180" s="2">
         <v>178</v>
       </c>
-      <c r="B180" t="s">
-        <v>182</v>
+      <c r="B180">
+        <v>2024</v>
       </c>
       <c r="C180" t="s">
-        <v>485</v>
+        <v>10</v>
       </c>
       <c r="D180" s="1">
         <v>623.9</v>
@@ -5371,11 +3499,11 @@
       <c r="A181" s="2">
         <v>179</v>
       </c>
-      <c r="B181" t="s">
-        <v>183</v>
+      <c r="B181">
+        <v>2024</v>
       </c>
       <c r="C181" t="s">
-        <v>486</v>
+        <v>10</v>
       </c>
       <c r="D181" s="1">
         <v>219.6</v>
@@ -5388,11 +3516,11 @@
       <c r="A182" s="2">
         <v>180</v>
       </c>
-      <c r="B182" t="s">
-        <v>184</v>
+      <c r="B182">
+        <v>2024</v>
       </c>
       <c r="C182" t="s">
-        <v>487</v>
+        <v>10</v>
       </c>
       <c r="D182" s="1">
         <v>42.5</v>
@@ -5405,11 +3533,11 @@
       <c r="A183" s="2">
         <v>181</v>
       </c>
-      <c r="B183" t="s">
-        <v>185</v>
+      <c r="B183">
+        <v>2024</v>
       </c>
       <c r="C183" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="D183" s="1">
         <v>331.5</v>
@@ -5422,11 +3550,11 @@
       <c r="A184" s="2">
         <v>182</v>
       </c>
-      <c r="B184" t="s">
-        <v>186</v>
+      <c r="B184">
+        <v>2024</v>
       </c>
       <c r="C184" t="s">
-        <v>410</v>
+        <v>10</v>
       </c>
       <c r="D184" s="1">
         <v>73.40000000000001</v>
@@ -5439,11 +3567,11 @@
       <c r="A185" s="2">
         <v>183</v>
       </c>
-      <c r="B185" t="s">
-        <v>187</v>
+      <c r="B185">
+        <v>2024</v>
       </c>
       <c r="C185" t="s">
-        <v>488</v>
+        <v>10</v>
       </c>
       <c r="D185" s="1">
         <v>65.90000000000001</v>
@@ -5456,11 +3584,11 @@
       <c r="A186" s="2">
         <v>184</v>
       </c>
-      <c r="B186" t="s">
-        <v>188</v>
+      <c r="B186">
+        <v>2024</v>
       </c>
       <c r="C186" t="s">
-        <v>489</v>
+        <v>10</v>
       </c>
       <c r="D186" s="1">
         <v>565.46</v>
@@ -5473,11 +3601,11 @@
       <c r="A187" s="2">
         <v>185</v>
       </c>
-      <c r="B187" t="s">
-        <v>189</v>
+      <c r="B187">
+        <v>2024</v>
       </c>
       <c r="C187" t="s">
-        <v>490</v>
+        <v>10</v>
       </c>
       <c r="D187" s="1">
         <v>305</v>
@@ -5490,11 +3618,11 @@
       <c r="A188" s="2">
         <v>186</v>
       </c>
-      <c r="B188" t="s">
-        <v>190</v>
+      <c r="B188">
+        <v>2024</v>
       </c>
       <c r="C188" t="s">
-        <v>491</v>
+        <v>10</v>
       </c>
       <c r="D188" s="1">
         <v>65.65000000000001</v>
@@ -5507,11 +3635,11 @@
       <c r="A189" s="2">
         <v>187</v>
       </c>
-      <c r="B189" t="s">
-        <v>191</v>
+      <c r="B189">
+        <v>2024</v>
       </c>
       <c r="C189" t="s">
-        <v>492</v>
+        <v>10</v>
       </c>
       <c r="D189" s="1">
         <v>78</v>
@@ -5524,11 +3652,11 @@
       <c r="A190" s="2">
         <v>188</v>
       </c>
-      <c r="B190" t="s">
-        <v>192</v>
+      <c r="B190">
+        <v>2024</v>
       </c>
       <c r="C190" t="s">
-        <v>493</v>
+        <v>10</v>
       </c>
       <c r="D190" s="1">
         <v>480.55</v>
@@ -5541,11 +3669,11 @@
       <c r="A191" s="2">
         <v>189</v>
       </c>
-      <c r="B191" t="s">
-        <v>193</v>
+      <c r="B191">
+        <v>2024</v>
       </c>
       <c r="C191" t="s">
-        <v>494</v>
+        <v>11</v>
       </c>
       <c r="D191" s="1">
         <v>4699.75</v>
@@ -5558,11 +3686,11 @@
       <c r="A192" s="2">
         <v>190</v>
       </c>
-      <c r="B192" t="s">
-        <v>194</v>
+      <c r="B192">
+        <v>2024</v>
       </c>
       <c r="C192" t="s">
-        <v>495</v>
+        <v>11</v>
       </c>
       <c r="D192" s="1">
         <v>144.3</v>
@@ -5575,11 +3703,11 @@
       <c r="A193" s="2">
         <v>191</v>
       </c>
-      <c r="B193" t="s">
-        <v>195</v>
+      <c r="B193">
+        <v>2024</v>
       </c>
       <c r="C193" t="s">
-        <v>496</v>
+        <v>11</v>
       </c>
       <c r="D193" s="1">
         <v>205.79</v>
@@ -5592,11 +3720,11 @@
       <c r="A194" s="2">
         <v>192</v>
       </c>
-      <c r="B194" t="s">
-        <v>196</v>
+      <c r="B194">
+        <v>2024</v>
       </c>
       <c r="C194" t="s">
-        <v>347</v>
+        <v>11</v>
       </c>
       <c r="D194" s="1">
         <v>1696.6</v>
@@ -5609,11 +3737,11 @@
       <c r="A195" s="2">
         <v>193</v>
       </c>
-      <c r="B195" t="s">
-        <v>197</v>
+      <c r="B195">
+        <v>2024</v>
       </c>
       <c r="C195" t="s">
-        <v>497</v>
+        <v>11</v>
       </c>
       <c r="D195" s="1">
         <v>27</v>
@@ -5626,11 +3754,11 @@
       <c r="A196" s="2">
         <v>194</v>
       </c>
-      <c r="B196" t="s">
-        <v>198</v>
+      <c r="B196">
+        <v>2024</v>
       </c>
       <c r="C196" t="s">
-        <v>498</v>
+        <v>11</v>
       </c>
       <c r="D196" s="1">
         <v>39.9</v>
@@ -5643,11 +3771,11 @@
       <c r="A197" s="2">
         <v>195</v>
       </c>
-      <c r="B197" t="s">
-        <v>199</v>
+      <c r="B197">
+        <v>2024</v>
       </c>
       <c r="C197" t="s">
-        <v>499</v>
+        <v>11</v>
       </c>
       <c r="D197" s="1">
         <v>444.5</v>
@@ -5660,11 +3788,11 @@
       <c r="A198" s="2">
         <v>196</v>
       </c>
-      <c r="B198" t="s">
-        <v>200</v>
+      <c r="B198">
+        <v>2024</v>
       </c>
       <c r="C198" t="s">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="D198" s="1">
         <v>26</v>
@@ -5677,11 +3805,11 @@
       <c r="A199" s="2">
         <v>197</v>
       </c>
-      <c r="B199" t="s">
-        <v>201</v>
+      <c r="B199">
+        <v>2024</v>
       </c>
       <c r="C199" t="s">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="D199" s="1">
         <v>986.49</v>
@@ -5694,11 +3822,11 @@
       <c r="A200" s="2">
         <v>198</v>
       </c>
-      <c r="B200" t="s">
-        <v>202</v>
+      <c r="B200">
+        <v>2024</v>
       </c>
       <c r="C200" t="s">
-        <v>502</v>
+        <v>11</v>
       </c>
       <c r="D200" s="1">
         <v>591.8</v>
@@ -5711,11 +3839,11 @@
       <c r="A201" s="2">
         <v>199</v>
       </c>
-      <c r="B201" t="s">
-        <v>203</v>
+      <c r="B201">
+        <v>2024</v>
       </c>
       <c r="C201" t="s">
-        <v>503</v>
+        <v>11</v>
       </c>
       <c r="D201" s="1">
         <v>48.5</v>
@@ -5728,11 +3856,11 @@
       <c r="A202" s="2">
         <v>200</v>
       </c>
-      <c r="B202" t="s">
-        <v>204</v>
+      <c r="B202">
+        <v>2024</v>
       </c>
       <c r="C202" t="s">
-        <v>504</v>
+        <v>11</v>
       </c>
       <c r="D202" s="1">
         <v>380.5</v>
@@ -5745,11 +3873,11 @@
       <c r="A203" s="2">
         <v>201</v>
       </c>
-      <c r="B203" t="s">
-        <v>205</v>
+      <c r="B203">
+        <v>2024</v>
       </c>
       <c r="C203" t="s">
-        <v>505</v>
+        <v>11</v>
       </c>
       <c r="D203" s="1">
         <v>582.6</v>
@@ -5762,11 +3890,11 @@
       <c r="A204" s="2">
         <v>202</v>
       </c>
-      <c r="B204" t="s">
-        <v>206</v>
+      <c r="B204">
+        <v>2024</v>
       </c>
       <c r="C204" t="s">
-        <v>506</v>
+        <v>11</v>
       </c>
       <c r="D204" s="1">
         <v>57.2</v>
@@ -5779,11 +3907,11 @@
       <c r="A205" s="2">
         <v>203</v>
       </c>
-      <c r="B205" t="s">
-        <v>207</v>
+      <c r="B205">
+        <v>2024</v>
       </c>
       <c r="C205" t="s">
-        <v>507</v>
+        <v>11</v>
       </c>
       <c r="D205" s="1">
         <v>100.7</v>
@@ -5796,11 +3924,11 @@
       <c r="A206" s="2">
         <v>204</v>
       </c>
-      <c r="B206" t="s">
-        <v>208</v>
+      <c r="B206">
+        <v>2024</v>
       </c>
       <c r="C206" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="D206" s="1">
         <v>27</v>
@@ -5813,11 +3941,11 @@
       <c r="A207" s="2">
         <v>205</v>
       </c>
-      <c r="B207" t="s">
-        <v>209</v>
+      <c r="B207">
+        <v>2024</v>
       </c>
       <c r="C207" t="s">
-        <v>508</v>
+        <v>11</v>
       </c>
       <c r="D207" s="1">
         <v>584.7</v>
@@ -5830,11 +3958,11 @@
       <c r="A208" s="2">
         <v>206</v>
       </c>
-      <c r="B208" t="s">
-        <v>210</v>
+      <c r="B208">
+        <v>2024</v>
       </c>
       <c r="C208" t="s">
-        <v>509</v>
+        <v>11</v>
       </c>
       <c r="D208" s="1">
         <v>350.7</v>
@@ -5847,11 +3975,11 @@
       <c r="A209" s="2">
         <v>207</v>
       </c>
-      <c r="B209" t="s">
-        <v>211</v>
+      <c r="B209">
+        <v>2024</v>
       </c>
       <c r="C209" t="s">
-        <v>510</v>
+        <v>11</v>
       </c>
       <c r="D209" s="1">
         <v>258.4</v>
@@ -5864,11 +3992,11 @@
       <c r="A210" s="2">
         <v>208</v>
       </c>
-      <c r="B210" t="s">
-        <v>212</v>
+      <c r="B210">
+        <v>2024</v>
       </c>
       <c r="C210" t="s">
-        <v>511</v>
+        <v>11</v>
       </c>
       <c r="D210" s="1">
         <v>140.2</v>
@@ -5881,11 +4009,11 @@
       <c r="A211" s="2">
         <v>209</v>
       </c>
-      <c r="B211" t="s">
-        <v>213</v>
+      <c r="B211">
+        <v>2024</v>
       </c>
       <c r="C211" t="s">
-        <v>512</v>
+        <v>11</v>
       </c>
       <c r="D211" s="1">
         <v>219.6</v>
@@ -5898,11 +4026,11 @@
       <c r="A212" s="2">
         <v>210</v>
       </c>
-      <c r="B212" t="s">
-        <v>214</v>
+      <c r="B212">
+        <v>2024</v>
       </c>
       <c r="C212" t="s">
-        <v>513</v>
+        <v>11</v>
       </c>
       <c r="D212" s="1">
         <v>448.1800000000001</v>
@@ -5915,11 +4043,11 @@
       <c r="A213" s="2">
         <v>211</v>
       </c>
-      <c r="B213" t="s">
-        <v>215</v>
+      <c r="B213">
+        <v>2024</v>
       </c>
       <c r="C213" t="s">
-        <v>514</v>
+        <v>11</v>
       </c>
       <c r="D213" s="1">
         <v>1035.33</v>
@@ -5932,11 +4060,11 @@
       <c r="A214" s="2">
         <v>212</v>
       </c>
-      <c r="B214" t="s">
-        <v>216</v>
+      <c r="B214">
+        <v>2024</v>
       </c>
       <c r="C214" t="s">
-        <v>515</v>
+        <v>11</v>
       </c>
       <c r="D214" s="1">
         <v>26</v>
@@ -5949,11 +4077,11 @@
       <c r="A215" s="2">
         <v>213</v>
       </c>
-      <c r="B215" t="s">
-        <v>217</v>
+      <c r="B215">
+        <v>2024</v>
       </c>
       <c r="C215" t="s">
-        <v>516</v>
+        <v>11</v>
       </c>
       <c r="D215" s="1">
         <v>695.36</v>
@@ -5966,11 +4094,11 @@
       <c r="A216" s="2">
         <v>214</v>
       </c>
-      <c r="B216" t="s">
-        <v>218</v>
+      <c r="B216">
+        <v>2024</v>
       </c>
       <c r="C216" t="s">
-        <v>517</v>
+        <v>11</v>
       </c>
       <c r="D216" s="1">
         <v>307</v>
@@ -5983,11 +4111,11 @@
       <c r="A217" s="2">
         <v>215</v>
       </c>
-      <c r="B217" t="s">
-        <v>219</v>
+      <c r="B217">
+        <v>2024</v>
       </c>
       <c r="C217" t="s">
-        <v>518</v>
+        <v>12</v>
       </c>
       <c r="D217" s="1">
         <v>4835.74</v>
@@ -6000,11 +4128,11 @@
       <c r="A218" s="2">
         <v>216</v>
       </c>
-      <c r="B218" t="s">
-        <v>220</v>
+      <c r="B218">
+        <v>2024</v>
       </c>
       <c r="C218" t="s">
-        <v>519</v>
+        <v>12</v>
       </c>
       <c r="D218" s="1">
         <v>55.4</v>
@@ -6017,11 +4145,11 @@
       <c r="A219" s="2">
         <v>217</v>
       </c>
-      <c r="B219" t="s">
-        <v>221</v>
+      <c r="B219">
+        <v>2024</v>
       </c>
       <c r="C219" t="s">
-        <v>520</v>
+        <v>12</v>
       </c>
       <c r="D219" s="1">
         <v>231.33</v>
@@ -6034,11 +4162,11 @@
       <c r="A220" s="2">
         <v>218</v>
       </c>
-      <c r="B220" t="s">
-        <v>222</v>
+      <c r="B220">
+        <v>2024</v>
       </c>
       <c r="C220" t="s">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="D220" s="1">
         <v>350.9</v>
@@ -6051,11 +4179,11 @@
       <c r="A221" s="2">
         <v>219</v>
       </c>
-      <c r="B221" t="s">
-        <v>223</v>
+      <c r="B221">
+        <v>2024</v>
       </c>
       <c r="C221" t="s">
-        <v>521</v>
+        <v>12</v>
       </c>
       <c r="D221" s="1">
         <v>244.9</v>
@@ -6068,11 +4196,11 @@
       <c r="A222" s="2">
         <v>220</v>
       </c>
-      <c r="B222" t="s">
-        <v>224</v>
+      <c r="B222">
+        <v>2024</v>
       </c>
       <c r="C222" t="s">
-        <v>522</v>
+        <v>12</v>
       </c>
       <c r="D222" s="1">
         <v>367</v>
@@ -6085,11 +4213,11 @@
       <c r="A223" s="2">
         <v>221</v>
       </c>
-      <c r="B223" t="s">
-        <v>225</v>
+      <c r="B223">
+        <v>2024</v>
       </c>
       <c r="C223" t="s">
-        <v>523</v>
+        <v>12</v>
       </c>
       <c r="D223" s="1">
         <v>1231.6</v>
@@ -6102,11 +4230,11 @@
       <c r="A224" s="2">
         <v>222</v>
       </c>
-      <c r="B224" t="s">
-        <v>226</v>
+      <c r="B224">
+        <v>2024</v>
       </c>
       <c r="C224" t="s">
-        <v>524</v>
+        <v>12</v>
       </c>
       <c r="D224" s="1">
         <v>160</v>
@@ -6119,11 +4247,11 @@
       <c r="A225" s="2">
         <v>223</v>
       </c>
-      <c r="B225" t="s">
-        <v>227</v>
+      <c r="B225">
+        <v>2024</v>
       </c>
       <c r="C225" t="s">
-        <v>525</v>
+        <v>12</v>
       </c>
       <c r="D225" s="1">
         <v>289.8</v>
@@ -6136,11 +4264,11 @@
       <c r="A226" s="2">
         <v>224</v>
       </c>
-      <c r="B226" t="s">
-        <v>228</v>
+      <c r="B226">
+        <v>2024</v>
       </c>
       <c r="C226" t="s">
-        <v>526</v>
+        <v>12</v>
       </c>
       <c r="D226" s="1">
         <v>143.9</v>
@@ -6153,11 +4281,11 @@
       <c r="A227" s="2">
         <v>225</v>
       </c>
-      <c r="B227" t="s">
-        <v>229</v>
+      <c r="B227">
+        <v>2024</v>
       </c>
       <c r="C227" t="s">
-        <v>527</v>
+        <v>12</v>
       </c>
       <c r="D227" s="1">
         <v>458.99</v>
@@ -6170,11 +4298,11 @@
       <c r="A228" s="2">
         <v>226</v>
       </c>
-      <c r="B228" t="s">
-        <v>230</v>
+      <c r="B228">
+        <v>2024</v>
       </c>
       <c r="C228" t="s">
-        <v>528</v>
+        <v>12</v>
       </c>
       <c r="D228" s="1">
         <v>0</v>
@@ -6187,11 +4315,11 @@
       <c r="A229" s="2">
         <v>227</v>
       </c>
-      <c r="B229" t="s">
-        <v>231</v>
+      <c r="B229">
+        <v>2024</v>
       </c>
       <c r="C229" t="s">
-        <v>529</v>
+        <v>12</v>
       </c>
       <c r="D229" s="1">
         <v>47.4</v>
@@ -6204,11 +4332,11 @@
       <c r="A230" s="2">
         <v>228</v>
       </c>
-      <c r="B230" t="s">
-        <v>232</v>
+      <c r="B230">
+        <v>2024</v>
       </c>
       <c r="C230" t="s">
-        <v>530</v>
+        <v>12</v>
       </c>
       <c r="D230" s="1">
         <v>300</v>
@@ -6221,11 +4349,11 @@
       <c r="A231" s="2">
         <v>229</v>
       </c>
-      <c r="B231" t="s">
-        <v>233</v>
+      <c r="B231">
+        <v>2024</v>
       </c>
       <c r="C231" t="s">
-        <v>531</v>
+        <v>12</v>
       </c>
       <c r="D231" s="1">
         <v>941</v>
@@ -6238,11 +4366,11 @@
       <c r="A232" s="2">
         <v>230</v>
       </c>
-      <c r="B232" t="s">
-        <v>234</v>
+      <c r="B232">
+        <v>2024</v>
       </c>
       <c r="C232" t="s">
-        <v>532</v>
+        <v>12</v>
       </c>
       <c r="D232" s="1">
         <v>54.27</v>
@@ -6255,11 +4383,11 @@
       <c r="A233" s="2">
         <v>231</v>
       </c>
-      <c r="B233" t="s">
-        <v>235</v>
+      <c r="B233">
+        <v>2024</v>
       </c>
       <c r="C233" t="s">
-        <v>533</v>
+        <v>12</v>
       </c>
       <c r="D233" s="1">
         <v>524</v>
@@ -6272,11 +4400,11 @@
       <c r="A234" s="2">
         <v>232</v>
       </c>
-      <c r="B234" t="s">
-        <v>236</v>
+      <c r="B234">
+        <v>2024</v>
       </c>
       <c r="C234" t="s">
-        <v>534</v>
+        <v>12</v>
       </c>
       <c r="D234" s="1">
         <v>860.4</v>
@@ -6289,11 +4417,11 @@
       <c r="A235" s="2">
         <v>233</v>
       </c>
-      <c r="B235" t="s">
-        <v>237</v>
+      <c r="B235">
+        <v>2024</v>
       </c>
       <c r="C235" t="s">
-        <v>535</v>
+        <v>12</v>
       </c>
       <c r="D235" s="1">
         <v>190</v>
@@ -6306,11 +4434,11 @@
       <c r="A236" s="2">
         <v>234</v>
       </c>
-      <c r="B236" t="s">
-        <v>238</v>
+      <c r="B236">
+        <v>2024</v>
       </c>
       <c r="C236" t="s">
-        <v>536</v>
+        <v>12</v>
       </c>
       <c r="D236" s="1">
         <v>268</v>
@@ -6323,11 +4451,11 @@
       <c r="A237" s="2">
         <v>235</v>
       </c>
-      <c r="B237" t="s">
-        <v>239</v>
+      <c r="B237">
+        <v>2024</v>
       </c>
       <c r="C237" t="s">
-        <v>395</v>
+        <v>12</v>
       </c>
       <c r="D237" s="1">
         <v>474.5</v>
@@ -6340,11 +4468,11 @@
       <c r="A238" s="2">
         <v>236</v>
       </c>
-      <c r="B238" t="s">
-        <v>240</v>
+      <c r="B238">
+        <v>2024</v>
       </c>
       <c r="C238" t="s">
-        <v>537</v>
+        <v>12</v>
       </c>
       <c r="D238" s="1">
         <v>224.43</v>
@@ -6357,11 +4485,11 @@
       <c r="A239" s="2">
         <v>237</v>
       </c>
-      <c r="B239" t="s">
-        <v>241</v>
+      <c r="B239">
+        <v>2024</v>
       </c>
       <c r="C239" t="s">
-        <v>390</v>
+        <v>12</v>
       </c>
       <c r="D239" s="1">
         <v>27</v>
@@ -6374,11 +4502,11 @@
       <c r="A240" s="2">
         <v>238</v>
       </c>
-      <c r="B240" t="s">
-        <v>242</v>
+      <c r="B240">
+        <v>2024</v>
       </c>
       <c r="C240" t="s">
-        <v>538</v>
+        <v>12</v>
       </c>
       <c r="D240" s="1">
         <v>359</v>
@@ -6391,11 +4519,11 @@
       <c r="A241" s="2">
         <v>239</v>
       </c>
-      <c r="B241" t="s">
-        <v>243</v>
+      <c r="B241">
+        <v>2024</v>
       </c>
       <c r="C241" t="s">
-        <v>539</v>
+        <v>12</v>
       </c>
       <c r="D241" s="1">
         <v>1543.8</v>
@@ -6408,11 +4536,11 @@
       <c r="A242" s="2">
         <v>240</v>
       </c>
-      <c r="B242" t="s">
-        <v>244</v>
+      <c r="B242">
+        <v>2024</v>
       </c>
       <c r="C242" t="s">
-        <v>540</v>
+        <v>13</v>
       </c>
       <c r="D242" s="1">
         <v>4786.7</v>
@@ -6425,11 +4553,11 @@
       <c r="A243" s="2">
         <v>241</v>
       </c>
-      <c r="B243" t="s">
-        <v>245</v>
+      <c r="B243">
+        <v>2024</v>
       </c>
       <c r="C243" t="s">
-        <v>541</v>
+        <v>13</v>
       </c>
       <c r="D243" s="1">
         <v>216</v>
@@ -6442,11 +4570,11 @@
       <c r="A244" s="2">
         <v>242</v>
       </c>
-      <c r="B244" t="s">
-        <v>246</v>
+      <c r="B244">
+        <v>2024</v>
       </c>
       <c r="C244" t="s">
-        <v>542</v>
+        <v>13</v>
       </c>
       <c r="D244" s="1">
         <v>556</v>
@@ -6459,11 +4587,11 @@
       <c r="A245" s="2">
         <v>243</v>
       </c>
-      <c r="B245" t="s">
-        <v>247</v>
+      <c r="B245">
+        <v>2024</v>
       </c>
       <c r="C245" t="s">
-        <v>543</v>
+        <v>13</v>
       </c>
       <c r="D245" s="1">
         <v>105.8</v>
@@ -6476,11 +4604,11 @@
       <c r="A246" s="2">
         <v>244</v>
       </c>
-      <c r="B246" t="s">
-        <v>248</v>
+      <c r="B246">
+        <v>2024</v>
       </c>
       <c r="C246" t="s">
-        <v>544</v>
+        <v>13</v>
       </c>
       <c r="D246" s="1">
         <v>2099</v>
@@ -6493,11 +4621,11 @@
       <c r="A247" s="2">
         <v>245</v>
       </c>
-      <c r="B247" t="s">
-        <v>249</v>
+      <c r="B247">
+        <v>2024</v>
       </c>
       <c r="C247" t="s">
-        <v>545</v>
+        <v>13</v>
       </c>
       <c r="D247" s="1">
         <v>779</v>
@@ -6510,11 +4638,11 @@
       <c r="A248" s="2">
         <v>246</v>
       </c>
-      <c r="B248" t="s">
-        <v>250</v>
+      <c r="B248">
+        <v>2024</v>
       </c>
       <c r="C248" t="s">
-        <v>546</v>
+        <v>13</v>
       </c>
       <c r="D248" s="1">
         <v>622.5</v>
@@ -6527,11 +4655,11 @@
       <c r="A249" s="2">
         <v>247</v>
       </c>
-      <c r="B249" t="s">
-        <v>251</v>
+      <c r="B249">
+        <v>2024</v>
       </c>
       <c r="C249" t="s">
-        <v>547</v>
+        <v>13</v>
       </c>
       <c r="D249" s="1">
         <v>38</v>
@@ -6544,11 +4672,11 @@
       <c r="A250" s="2">
         <v>248</v>
       </c>
-      <c r="B250" t="s">
-        <v>252</v>
+      <c r="B250">
+        <v>2024</v>
       </c>
       <c r="C250" t="s">
-        <v>548</v>
+        <v>13</v>
       </c>
       <c r="D250" s="1">
         <v>428</v>
@@ -6561,11 +4689,11 @@
       <c r="A251" s="2">
         <v>249</v>
       </c>
-      <c r="B251" t="s">
-        <v>253</v>
+      <c r="B251">
+        <v>2024</v>
       </c>
       <c r="C251" t="s">
-        <v>549</v>
+        <v>13</v>
       </c>
       <c r="D251" s="1">
         <v>398.6</v>
@@ -6578,11 +4706,11 @@
       <c r="A252" s="2">
         <v>250</v>
       </c>
-      <c r="B252" t="s">
-        <v>254</v>
+      <c r="B252">
+        <v>2024</v>
       </c>
       <c r="C252" t="s">
-        <v>550</v>
+        <v>13</v>
       </c>
       <c r="D252" s="1">
         <v>33.2</v>
@@ -6595,11 +4723,11 @@
       <c r="A253" s="2">
         <v>251</v>
       </c>
-      <c r="B253" t="s">
-        <v>255</v>
+      <c r="B253">
+        <v>2024</v>
       </c>
       <c r="C253" t="s">
-        <v>551</v>
+        <v>13</v>
       </c>
       <c r="D253" s="1">
         <v>38</v>
@@ -6612,11 +4740,11 @@
       <c r="A254" s="2">
         <v>252</v>
       </c>
-      <c r="B254" t="s">
-        <v>256</v>
+      <c r="B254">
+        <v>2024</v>
       </c>
       <c r="C254" t="s">
-        <v>533</v>
+        <v>13</v>
       </c>
       <c r="D254" s="1">
         <v>791</v>
@@ -6629,11 +4757,11 @@
       <c r="A255" s="2">
         <v>253</v>
       </c>
-      <c r="B255" t="s">
-        <v>257</v>
+      <c r="B255">
+        <v>2024</v>
       </c>
       <c r="C255" t="s">
-        <v>533</v>
+        <v>13</v>
       </c>
       <c r="D255" s="1">
         <v>179.9</v>
@@ -6646,11 +4774,11 @@
       <c r="A256" s="2">
         <v>254</v>
       </c>
-      <c r="B256" t="s">
-        <v>258</v>
+      <c r="B256">
+        <v>2024</v>
       </c>
       <c r="C256" t="s">
-        <v>552</v>
+        <v>13</v>
       </c>
       <c r="D256" s="1">
         <v>166.5</v>
@@ -6663,11 +4791,11 @@
       <c r="A257" s="2">
         <v>255</v>
       </c>
-      <c r="B257" t="s">
-        <v>259</v>
+      <c r="B257">
+        <v>2024</v>
       </c>
       <c r="C257" t="s">
-        <v>553</v>
+        <v>13</v>
       </c>
       <c r="D257" s="1">
         <v>101.6</v>
@@ -6680,11 +4808,11 @@
       <c r="A258" s="2">
         <v>256</v>
       </c>
-      <c r="B258" t="s">
-        <v>260</v>
+      <c r="B258">
+        <v>2024</v>
       </c>
       <c r="C258" t="s">
-        <v>554</v>
+        <v>13</v>
       </c>
       <c r="D258" s="1">
         <v>666.8</v>
@@ -6697,11 +4825,11 @@
       <c r="A259" s="2">
         <v>257</v>
       </c>
-      <c r="B259" t="s">
-        <v>261</v>
+      <c r="B259">
+        <v>2024</v>
       </c>
       <c r="C259" t="s">
-        <v>555</v>
+        <v>13</v>
       </c>
       <c r="D259" s="1">
         <v>140.3</v>
@@ -6714,11 +4842,11 @@
       <c r="A260" s="2">
         <v>258</v>
       </c>
-      <c r="B260" t="s">
-        <v>262</v>
+      <c r="B260">
+        <v>2024</v>
       </c>
       <c r="C260" t="s">
-        <v>556</v>
+        <v>13</v>
       </c>
       <c r="D260" s="1">
         <v>914</v>
@@ -6731,11 +4859,11 @@
       <c r="A261" s="2">
         <v>259</v>
       </c>
-      <c r="B261" t="s">
-        <v>263</v>
+      <c r="B261">
+        <v>2024</v>
       </c>
       <c r="C261" t="s">
-        <v>557</v>
+        <v>13</v>
       </c>
       <c r="D261" s="1">
         <v>429</v>
@@ -6748,11 +4876,11 @@
       <c r="A262" s="2">
         <v>260</v>
       </c>
-      <c r="B262" t="s">
-        <v>264</v>
+      <c r="B262">
+        <v>2024</v>
       </c>
       <c r="C262" t="s">
-        <v>558</v>
+        <v>14</v>
       </c>
       <c r="D262" s="1">
         <v>4966.75</v>
@@ -6765,11 +4893,11 @@
       <c r="A263" s="2">
         <v>261</v>
       </c>
-      <c r="B263" t="s">
-        <v>265</v>
+      <c r="B263">
+        <v>2024</v>
       </c>
       <c r="C263" t="s">
-        <v>559</v>
+        <v>14</v>
       </c>
       <c r="D263" s="1">
         <v>955.52</v>
@@ -6782,11 +4910,11 @@
       <c r="A264" s="2">
         <v>262</v>
       </c>
-      <c r="B264" t="s">
-        <v>266</v>
+      <c r="B264">
+        <v>2024</v>
       </c>
       <c r="C264" t="s">
-        <v>560</v>
+        <v>14</v>
       </c>
       <c r="D264" s="1">
         <v>266</v>
@@ -6799,11 +4927,11 @@
       <c r="A265" s="2">
         <v>263</v>
       </c>
-      <c r="B265" t="s">
-        <v>267</v>
+      <c r="B265">
+        <v>2024</v>
       </c>
       <c r="C265" t="s">
-        <v>561</v>
+        <v>14</v>
       </c>
       <c r="D265" s="1">
         <v>869.9</v>
@@ -6816,11 +4944,11 @@
       <c r="A266" s="2">
         <v>264</v>
       </c>
-      <c r="B266" t="s">
-        <v>268</v>
+      <c r="B266">
+        <v>2024</v>
       </c>
       <c r="C266" t="s">
-        <v>562</v>
+        <v>14</v>
       </c>
       <c r="D266" s="1">
         <v>518</v>
@@ -6833,11 +4961,11 @@
       <c r="A267" s="2">
         <v>265</v>
       </c>
-      <c r="B267" t="s">
-        <v>269</v>
+      <c r="B267">
+        <v>2024</v>
       </c>
       <c r="C267" t="s">
-        <v>563</v>
+        <v>14</v>
       </c>
       <c r="D267" s="1">
         <v>704</v>
@@ -6850,11 +4978,11 @@
       <c r="A268" s="2">
         <v>266</v>
       </c>
-      <c r="B268" t="s">
-        <v>270</v>
+      <c r="B268">
+        <v>2024</v>
       </c>
       <c r="C268" t="s">
-        <v>564</v>
+        <v>14</v>
       </c>
       <c r="D268" s="1">
         <v>1437.5</v>
@@ -6867,11 +4995,11 @@
       <c r="A269" s="2">
         <v>267</v>
       </c>
-      <c r="B269" t="s">
-        <v>271</v>
+      <c r="B269">
+        <v>2024</v>
       </c>
       <c r="C269" t="s">
-        <v>565</v>
+        <v>14</v>
       </c>
       <c r="D269" s="1">
         <v>893.16</v>
@@ -6884,11 +5012,11 @@
       <c r="A270" s="2">
         <v>268</v>
       </c>
-      <c r="B270" t="s">
-        <v>272</v>
+      <c r="B270">
+        <v>2024</v>
       </c>
       <c r="C270" t="s">
-        <v>566</v>
+        <v>14</v>
       </c>
       <c r="D270" s="1">
         <v>0</v>
@@ -6901,11 +5029,11 @@
       <c r="A271" s="2">
         <v>269</v>
       </c>
-      <c r="B271" t="s">
-        <v>273</v>
+      <c r="B271">
+        <v>2024</v>
       </c>
       <c r="C271" t="s">
-        <v>567</v>
+        <v>14</v>
       </c>
       <c r="D271" s="1">
         <v>64.90000000000001</v>
@@ -6918,11 +5046,11 @@
       <c r="A272" s="2">
         <v>270</v>
       </c>
-      <c r="B272" t="s">
-        <v>274</v>
+      <c r="B272">
+        <v>2024</v>
       </c>
       <c r="C272" t="s">
-        <v>568</v>
+        <v>14</v>
       </c>
       <c r="D272" s="1">
         <v>35</v>
@@ -6935,11 +5063,11 @@
       <c r="A273" s="2">
         <v>271</v>
       </c>
-      <c r="B273" t="s">
-        <v>275</v>
+      <c r="B273">
+        <v>2024</v>
       </c>
       <c r="C273" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="D273" s="1">
         <v>259.8</v>
@@ -6952,11 +5080,11 @@
       <c r="A274" s="2">
         <v>272</v>
       </c>
-      <c r="B274" t="s">
-        <v>276</v>
+      <c r="B274">
+        <v>2024</v>
       </c>
       <c r="C274" t="s">
-        <v>570</v>
+        <v>14</v>
       </c>
       <c r="D274" s="1">
         <v>408</v>
@@ -6969,11 +5097,11 @@
       <c r="A275" s="2">
         <v>273</v>
       </c>
-      <c r="B275" t="s">
-        <v>277</v>
+      <c r="B275">
+        <v>2024</v>
       </c>
       <c r="C275" t="s">
-        <v>571</v>
+        <v>14</v>
       </c>
       <c r="D275" s="1">
         <v>424.45</v>
@@ -6986,11 +5114,11 @@
       <c r="A276" s="2">
         <v>274</v>
       </c>
-      <c r="B276" t="s">
-        <v>278</v>
+      <c r="B276">
+        <v>2024</v>
       </c>
       <c r="C276" t="s">
-        <v>572</v>
+        <v>14</v>
       </c>
       <c r="D276" s="1">
         <v>29.9</v>
@@ -7003,11 +5131,11 @@
       <c r="A277" s="2">
         <v>275</v>
       </c>
-      <c r="B277" t="s">
-        <v>279</v>
+      <c r="B277">
+        <v>2024</v>
       </c>
       <c r="C277" t="s">
-        <v>573</v>
+        <v>14</v>
       </c>
       <c r="D277" s="1">
         <v>99.90000000000001</v>
@@ -7020,11 +5148,11 @@
       <c r="A278" s="2">
         <v>276</v>
       </c>
-      <c r="B278" t="s">
-        <v>280</v>
+      <c r="B278">
+        <v>2024</v>
       </c>
       <c r="C278" t="s">
-        <v>574</v>
+        <v>14</v>
       </c>
       <c r="D278" s="1">
         <v>706</v>
@@ -7037,11 +5165,11 @@
       <c r="A279" s="2">
         <v>277</v>
       </c>
-      <c r="B279" t="s">
-        <v>281</v>
+      <c r="B279">
+        <v>2024</v>
       </c>
       <c r="C279" t="s">
-        <v>575</v>
+        <v>14</v>
       </c>
       <c r="D279" s="1">
         <v>1499.35</v>
@@ -7054,11 +5182,11 @@
       <c r="A280" s="2">
         <v>278</v>
       </c>
-      <c r="B280" t="s">
-        <v>282</v>
+      <c r="B280">
+        <v>2024</v>
       </c>
       <c r="C280" t="s">
-        <v>576</v>
+        <v>14</v>
       </c>
       <c r="D280" s="1">
         <v>532.83</v>
@@ -7071,11 +5199,11 @@
       <c r="A281" s="2">
         <v>279</v>
       </c>
-      <c r="B281" t="s">
-        <v>283</v>
+      <c r="B281">
+        <v>2024</v>
       </c>
       <c r="C281" t="s">
-        <v>577</v>
+        <v>14</v>
       </c>
       <c r="D281" s="1">
         <v>228.7</v>
@@ -7088,11 +5216,11 @@
       <c r="A282" s="2">
         <v>280</v>
       </c>
-      <c r="B282" t="s">
-        <v>284</v>
+      <c r="B282">
+        <v>2024</v>
       </c>
       <c r="C282" t="s">
-        <v>569</v>
+        <v>14</v>
       </c>
       <c r="D282" s="1">
         <v>27</v>
@@ -7105,11 +5233,11 @@
       <c r="A283" s="2">
         <v>281</v>
       </c>
-      <c r="B283" t="s">
-        <v>285</v>
+      <c r="B283">
+        <v>2024</v>
       </c>
       <c r="C283" t="s">
-        <v>578</v>
+        <v>14</v>
       </c>
       <c r="D283" s="1">
         <v>597.55</v>
@@ -7122,11 +5250,11 @@
       <c r="A284" s="2">
         <v>282</v>
       </c>
-      <c r="B284" t="s">
-        <v>286</v>
+      <c r="B284">
+        <v>2024</v>
       </c>
       <c r="C284" t="s">
-        <v>579</v>
+        <v>14</v>
       </c>
       <c r="D284" s="1">
         <v>97.53</v>
@@ -7139,11 +5267,11 @@
       <c r="A285" s="2">
         <v>283</v>
       </c>
-      <c r="B285" t="s">
-        <v>287</v>
+      <c r="B285">
+        <v>2024</v>
       </c>
       <c r="C285" t="s">
-        <v>580</v>
+        <v>14</v>
       </c>
       <c r="D285" s="1">
         <v>51</v>
@@ -7156,11 +5284,11 @@
       <c r="A286" s="2">
         <v>284</v>
       </c>
-      <c r="B286" t="s">
-        <v>288</v>
+      <c r="B286">
+        <v>2024</v>
       </c>
       <c r="C286" t="s">
-        <v>581</v>
+        <v>14</v>
       </c>
       <c r="D286" s="1">
         <v>136</v>
@@ -7173,11 +5301,11 @@
       <c r="A287" s="2">
         <v>285</v>
       </c>
-      <c r="B287" t="s">
-        <v>289</v>
+      <c r="B287">
+        <v>2024</v>
       </c>
       <c r="C287" t="s">
-        <v>582</v>
+        <v>14</v>
       </c>
       <c r="D287" s="1">
         <v>123.4</v>
@@ -7190,11 +5318,11 @@
       <c r="A288" s="2">
         <v>286</v>
       </c>
-      <c r="B288" t="s">
-        <v>290</v>
+      <c r="B288">
+        <v>2024</v>
       </c>
       <c r="C288" t="s">
-        <v>583</v>
+        <v>14</v>
       </c>
       <c r="D288" s="1">
         <v>548.22</v>
@@ -7207,11 +5335,11 @@
       <c r="A289" s="2">
         <v>287</v>
       </c>
-      <c r="B289" t="s">
-        <v>291</v>
+      <c r="B289">
+        <v>2024</v>
       </c>
       <c r="C289" t="s">
-        <v>584</v>
+        <v>15</v>
       </c>
       <c r="D289" s="1">
         <v>4948</v>
@@ -7224,11 +5352,11 @@
       <c r="A290" s="2">
         <v>288</v>
       </c>
-      <c r="B290" t="s">
-        <v>292</v>
+      <c r="B290">
+        <v>2024</v>
       </c>
       <c r="C290" t="s">
-        <v>325</v>
+        <v>15</v>
       </c>
       <c r="D290" s="1">
         <v>2044</v>
@@ -7241,11 +5369,11 @@
       <c r="A291" s="2">
         <v>289</v>
       </c>
-      <c r="B291" t="s">
-        <v>293</v>
+      <c r="B291">
+        <v>2024</v>
       </c>
       <c r="C291" t="s">
-        <v>585</v>
+        <v>15</v>
       </c>
       <c r="D291" s="1">
         <v>26</v>
@@ -7258,11 +5386,11 @@
       <c r="A292" s="2">
         <v>290</v>
       </c>
-      <c r="B292" t="s">
-        <v>294</v>
+      <c r="B292">
+        <v>2024</v>
       </c>
       <c r="C292" t="s">
-        <v>586</v>
+        <v>15</v>
       </c>
       <c r="D292" s="1">
         <v>324.73</v>
@@ -7275,11 +5403,11 @@
       <c r="A293" s="2">
         <v>291</v>
       </c>
-      <c r="B293" t="s">
-        <v>295</v>
+      <c r="B293">
+        <v>2024</v>
       </c>
       <c r="C293" t="s">
-        <v>587</v>
+        <v>15</v>
       </c>
       <c r="D293" s="1">
         <v>675.86</v>
@@ -7292,11 +5420,11 @@
       <c r="A294" s="2">
         <v>292</v>
       </c>
-      <c r="B294" t="s">
-        <v>296</v>
+      <c r="B294">
+        <v>2024</v>
       </c>
       <c r="C294" t="s">
-        <v>588</v>
+        <v>15</v>
       </c>
       <c r="D294" s="1">
         <v>39.9</v>
@@ -7309,11 +5437,11 @@
       <c r="A295" s="2">
         <v>293</v>
       </c>
-      <c r="B295" t="s">
-        <v>297</v>
+      <c r="B295">
+        <v>2024</v>
       </c>
       <c r="C295" t="s">
-        <v>589</v>
+        <v>15</v>
       </c>
       <c r="D295" s="1">
         <v>180.5</v>
@@ -7326,11 +5454,11 @@
       <c r="A296" s="2">
         <v>294</v>
       </c>
-      <c r="B296" t="s">
-        <v>298</v>
+      <c r="B296">
+        <v>2024</v>
       </c>
       <c r="C296" t="s">
-        <v>590</v>
+        <v>15</v>
       </c>
       <c r="D296" s="1">
         <v>174.8</v>
@@ -7343,11 +5471,11 @@
       <c r="A297" s="2">
         <v>295</v>
       </c>
-      <c r="B297" t="s">
-        <v>299</v>
+      <c r="B297">
+        <v>2024</v>
       </c>
       <c r="C297" t="s">
-        <v>591</v>
+        <v>15</v>
       </c>
       <c r="D297" s="1">
         <v>26</v>
@@ -7360,11 +5488,11 @@
       <c r="A298" s="2">
         <v>296</v>
       </c>
-      <c r="B298" t="s">
-        <v>300</v>
+      <c r="B298">
+        <v>2024</v>
       </c>
       <c r="C298" t="s">
-        <v>592</v>
+        <v>15</v>
       </c>
       <c r="D298" s="1">
         <v>219.4</v>
@@ -7377,11 +5505,11 @@
       <c r="A299" s="2">
         <v>297</v>
       </c>
-      <c r="B299" t="s">
-        <v>301</v>
+      <c r="B299">
+        <v>2024</v>
       </c>
       <c r="C299" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
       <c r="D299" s="1">
         <v>206.72</v>
@@ -7394,11 +5522,11 @@
       <c r="A300" s="2">
         <v>298</v>
       </c>
-      <c r="B300" t="s">
-        <v>302</v>
+      <c r="B300">
+        <v>2024</v>
       </c>
       <c r="C300" t="s">
-        <v>593</v>
+        <v>15</v>
       </c>
       <c r="D300" s="1">
         <v>341.5</v>
@@ -7411,11 +5539,11 @@
       <c r="A301" s="2">
         <v>299</v>
       </c>
-      <c r="B301" t="s">
-        <v>303</v>
+      <c r="B301">
+        <v>2024</v>
       </c>
       <c r="C301" t="s">
-        <v>594</v>
+        <v>15</v>
       </c>
       <c r="D301" s="1">
         <v>327</v>
@@ -7428,11 +5556,11 @@
       <c r="A302" s="2">
         <v>300</v>
       </c>
-      <c r="B302" t="s">
-        <v>304</v>
+      <c r="B302">
+        <v>2024</v>
       </c>
       <c r="C302" t="s">
-        <v>595</v>
+        <v>15</v>
       </c>
       <c r="D302" s="1">
         <v>186.67</v>
@@ -7445,11 +5573,11 @@
       <c r="A303" s="2">
         <v>301</v>
       </c>
-      <c r="B303" t="s">
-        <v>305</v>
+      <c r="B303">
+        <v>2024</v>
       </c>
       <c r="C303" t="s">
-        <v>596</v>
+        <v>15</v>
       </c>
       <c r="D303" s="1">
         <v>374.9</v>
@@ -7462,11 +5590,11 @@
       <c r="A304" s="2">
         <v>302</v>
       </c>
-      <c r="B304" t="s">
-        <v>306</v>
+      <c r="B304">
+        <v>2024</v>
       </c>
       <c r="C304" t="s">
-        <v>597</v>
+        <v>15</v>
       </c>
       <c r="D304" s="1">
         <v>555</v>
@@ -7479,11 +5607,11 @@
       <c r="A305" s="2">
         <v>303</v>
       </c>
-      <c r="B305" t="s">
-        <v>307</v>
+      <c r="B305">
+        <v>2024</v>
       </c>
       <c r="C305" t="s">
-        <v>598</v>
+        <v>15</v>
       </c>
       <c r="D305" s="1">
         <v>55.64</v>
@@ -7496,11 +5624,11 @@
       <c r="A306" s="2">
         <v>304</v>
       </c>
-      <c r="B306" t="s">
-        <v>308</v>
+      <c r="B306">
+        <v>2024</v>
       </c>
       <c r="C306" t="s">
-        <v>599</v>
+        <v>15</v>
       </c>
       <c r="D306" s="1">
         <v>326.4</v>
@@ -7513,11 +5641,11 @@
       <c r="A307" s="2">
         <v>305</v>
       </c>
-      <c r="B307" t="s">
-        <v>309</v>
+      <c r="B307">
+        <v>2024</v>
       </c>
       <c r="C307" t="s">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="D307" s="1">
         <v>193</v>
@@ -7530,11 +5658,11 @@
       <c r="A308" s="2">
         <v>306</v>
       </c>
-      <c r="B308" t="s">
-        <v>310</v>
+      <c r="B308">
+        <v>2024</v>
       </c>
       <c r="C308" t="s">
-        <v>601</v>
+        <v>15</v>
       </c>
       <c r="D308" s="1">
         <v>66.8</v>
@@ -7547,11 +5675,11 @@
       <c r="A309" s="2">
         <v>307</v>
       </c>
-      <c r="B309" t="s">
-        <v>311</v>
+      <c r="B309">
+        <v>2024</v>
       </c>
       <c r="C309" t="s">
-        <v>602</v>
+        <v>15</v>
       </c>
       <c r="D309" s="1">
         <v>1064.9</v>
@@ -7564,11 +5692,11 @@
       <c r="A310" s="2">
         <v>308</v>
       </c>
-      <c r="B310" t="s">
-        <v>312</v>
+      <c r="B310">
+        <v>2024</v>
       </c>
       <c r="C310" t="s">
-        <v>569</v>
+        <v>15</v>
       </c>
       <c r="D310" s="1">
         <v>377</v>
@@ -7581,11 +5709,11 @@
       <c r="A311" s="2">
         <v>309</v>
       </c>
-      <c r="B311" t="s">
-        <v>313</v>
+      <c r="B311">
+        <v>2024</v>
       </c>
       <c r="C311" t="s">
-        <v>603</v>
+        <v>15</v>
       </c>
       <c r="D311" s="1">
         <v>46.4</v>
@@ -7598,11 +5726,11 @@
       <c r="A312" s="2">
         <v>310</v>
       </c>
-      <c r="B312" t="s">
-        <v>314</v>
+      <c r="B312">
+        <v>2024</v>
       </c>
       <c r="C312" t="s">
-        <v>604</v>
+        <v>15</v>
       </c>
       <c r="D312" s="1">
         <v>68</v>
@@ -7615,11 +5743,11 @@
       <c r="A313" s="2">
         <v>311</v>
       </c>
-      <c r="B313" t="s">
-        <v>315</v>
+      <c r="B313">
+        <v>2024</v>
       </c>
       <c r="C313" t="s">
-        <v>605</v>
+        <v>15</v>
       </c>
       <c r="D313" s="1">
         <v>459.25</v>
@@ -7632,11 +5760,11 @@
       <c r="A314" s="2">
         <v>312</v>
       </c>
-      <c r="B314" t="s">
-        <v>316</v>
+      <c r="B314">
+        <v>2024</v>
       </c>
       <c r="C314" t="s">
-        <v>606</v>
+        <v>15</v>
       </c>
       <c r="D314" s="1">
         <v>37</v>
@@ -7649,11 +5777,11 @@
       <c r="A315" s="2">
         <v>313</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315">
+        <v>2024</v>
+      </c>
+      <c r="C315" t="s">
         <v>4</v>
-      </c>
-      <c r="C315" t="s">
-        <v>607</v>
       </c>
       <c r="D315" s="1">
         <v>6078.700000000001</v>
@@ -7666,11 +5794,11 @@
       <c r="A316" s="2">
         <v>314</v>
       </c>
-      <c r="B316" t="s">
-        <v>5</v>
+      <c r="B316">
+        <v>2024</v>
       </c>
       <c r="C316" t="s">
-        <v>608</v>
+        <v>4</v>
       </c>
       <c r="D316" s="1">
         <v>695</v>
@@ -7683,11 +5811,11 @@
       <c r="A317" s="2">
         <v>315</v>
       </c>
-      <c r="B317" t="s">
-        <v>6</v>
+      <c r="B317">
+        <v>2024</v>
       </c>
       <c r="C317" t="s">
-        <v>609</v>
+        <v>4</v>
       </c>
       <c r="D317" s="1">
         <v>37</v>
@@ -7700,11 +5828,11 @@
       <c r="A318" s="2">
         <v>316</v>
       </c>
-      <c r="B318" t="s">
-        <v>7</v>
+      <c r="B318">
+        <v>2024</v>
       </c>
       <c r="C318" t="s">
-        <v>610</v>
+        <v>4</v>
       </c>
       <c r="D318" s="1">
         <v>31.9</v>
@@ -7717,11 +5845,11 @@
       <c r="A319" s="2">
         <v>317</v>
       </c>
-      <c r="B319" t="s">
-        <v>8</v>
+      <c r="B319">
+        <v>2024</v>
       </c>
       <c r="C319" t="s">
-        <v>611</v>
+        <v>4</v>
       </c>
       <c r="D319" s="1">
         <v>449</v>
@@ -7734,11 +5862,11 @@
       <c r="A320" s="2">
         <v>318</v>
       </c>
-      <c r="B320" t="s">
-        <v>10</v>
+      <c r="B320">
+        <v>2024</v>
       </c>
       <c r="C320" t="s">
-        <v>612</v>
+        <v>4</v>
       </c>
       <c r="D320" s="1">
         <v>163.3</v>
@@ -7751,11 +5879,11 @@
       <c r="A321" s="2">
         <v>319</v>
       </c>
-      <c r="B321" t="s">
-        <v>11</v>
+      <c r="B321">
+        <v>2024</v>
       </c>
       <c r="C321" t="s">
-        <v>569</v>
+        <v>4</v>
       </c>
       <c r="D321" s="1">
         <v>27</v>
@@ -7768,11 +5896,11 @@
       <c r="A322" s="2">
         <v>320</v>
       </c>
-      <c r="B322" t="s">
-        <v>12</v>
+      <c r="B322">
+        <v>2024</v>
       </c>
       <c r="C322" t="s">
-        <v>338</v>
+        <v>4</v>
       </c>
       <c r="D322" s="1">
         <v>61</v>
@@ -7785,11 +5913,11 @@
       <c r="A323" s="2">
         <v>321</v>
       </c>
-      <c r="B323" t="s">
-        <v>13</v>
+      <c r="B323">
+        <v>2024</v>
       </c>
       <c r="C323" t="s">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D323" s="1">
         <v>721.2</v>
@@ -7802,11 +5930,11 @@
       <c r="A324" s="2">
         <v>322</v>
       </c>
-      <c r="B324" t="s">
-        <v>15</v>
+      <c r="B324">
+        <v>2024</v>
       </c>
       <c r="C324" t="s">
-        <v>614</v>
+        <v>4</v>
       </c>
       <c r="D324" s="1">
         <v>118.8</v>
@@ -7819,11 +5947,11 @@
       <c r="A325" s="2">
         <v>323</v>
       </c>
-      <c r="B325" t="s">
-        <v>317</v>
+      <c r="B325">
+        <v>2024</v>
       </c>
       <c r="C325" t="s">
-        <v>615</v>
+        <v>4</v>
       </c>
       <c r="D325" s="1">
         <v>74.90000000000001</v>
@@ -7836,11 +5964,11 @@
       <c r="A326" s="2">
         <v>324</v>
       </c>
-      <c r="B326" t="s">
-        <v>17</v>
+      <c r="B326">
+        <v>2024</v>
       </c>
       <c r="C326" t="s">
-        <v>616</v>
+        <v>4</v>
       </c>
       <c r="D326" s="1">
         <v>705.4</v>
@@ -7853,11 +5981,11 @@
       <c r="A327" s="2">
         <v>325</v>
       </c>
-      <c r="B327" t="s">
-        <v>18</v>
+      <c r="B327">
+        <v>2024</v>
       </c>
       <c r="C327" t="s">
-        <v>617</v>
+        <v>4</v>
       </c>
       <c r="D327" s="1">
         <v>300.63</v>
@@ -7870,11 +5998,11 @@
       <c r="A328" s="2">
         <v>326</v>
       </c>
-      <c r="B328" t="s">
-        <v>19</v>
+      <c r="B328">
+        <v>2024</v>
       </c>
       <c r="C328" t="s">
-        <v>618</v>
+        <v>4</v>
       </c>
       <c r="D328" s="1">
         <v>371.37</v>
@@ -7887,11 +6015,11 @@
       <c r="A329" s="2">
         <v>327</v>
       </c>
-      <c r="B329" t="s">
-        <v>20</v>
+      <c r="B329">
+        <v>2024</v>
       </c>
       <c r="C329" t="s">
-        <v>619</v>
+        <v>4</v>
       </c>
       <c r="D329" s="1">
         <v>619.74</v>
@@ -7904,11 +6032,11 @@
       <c r="A330" s="2">
         <v>328</v>
       </c>
-      <c r="B330" t="s">
-        <v>22</v>
+      <c r="B330">
+        <v>2024</v>
       </c>
       <c r="C330" t="s">
-        <v>620</v>
+        <v>4</v>
       </c>
       <c r="D330" s="1">
         <v>674.79</v>
@@ -7921,11 +6049,11 @@
       <c r="A331" s="2">
         <v>329</v>
       </c>
-      <c r="B331" t="s">
-        <v>23</v>
+      <c r="B331">
+        <v>2024</v>
       </c>
       <c r="C331" t="s">
-        <v>621</v>
+        <v>4</v>
       </c>
       <c r="D331" s="1">
         <v>183.59</v>
@@ -7938,11 +6066,11 @@
       <c r="A332" s="2">
         <v>330</v>
       </c>
-      <c r="B332" t="s">
-        <v>24</v>
+      <c r="B332">
+        <v>2024</v>
       </c>
       <c r="C332" t="s">
-        <v>622</v>
+        <v>4</v>
       </c>
       <c r="D332" s="1">
         <v>66</v>
@@ -7955,11 +6083,11 @@
       <c r="A333" s="2">
         <v>331</v>
       </c>
-      <c r="B333" t="s">
-        <v>25</v>
+      <c r="B333">
+        <v>2024</v>
       </c>
       <c r="C333" t="s">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D333" s="1">
         <v>219.34</v>
@@ -7972,11 +6100,11 @@
       <c r="A334" s="2">
         <v>332</v>
       </c>
-      <c r="B334" t="s">
-        <v>26</v>
+      <c r="B334">
+        <v>2024</v>
       </c>
       <c r="C334" t="s">
-        <v>624</v>
+        <v>4</v>
       </c>
       <c r="D334" s="1">
         <v>47.8</v>
@@ -7989,11 +6117,11 @@
       <c r="A335" s="2">
         <v>333</v>
       </c>
-      <c r="B335" t="s">
-        <v>27</v>
+      <c r="B335">
+        <v>2024</v>
       </c>
       <c r="C335" t="s">
-        <v>625</v>
+        <v>4</v>
       </c>
       <c r="D335" s="1">
         <v>122.7</v>
@@ -8006,11 +6134,11 @@
       <c r="A336" s="2">
         <v>334</v>
       </c>
-      <c r="B336" t="s">
-        <v>28</v>
+      <c r="B336">
+        <v>2024</v>
       </c>
       <c r="C336" t="s">
-        <v>626</v>
+        <v>4</v>
       </c>
       <c r="D336" s="1">
         <v>938.5</v>
@@ -8023,11 +6151,11 @@
       <c r="A337" s="2">
         <v>335</v>
       </c>
-      <c r="B337" t="s">
-        <v>29</v>
+      <c r="B337">
+        <v>2024</v>
       </c>
       <c r="C337" t="s">
-        <v>627</v>
+        <v>4</v>
       </c>
       <c r="D337" s="1">
         <v>186.1</v>
@@ -8040,11 +6168,11 @@
       <c r="A338" s="2">
         <v>336</v>
       </c>
-      <c r="B338" t="s">
-        <v>30</v>
+      <c r="B338">
+        <v>2024</v>
       </c>
       <c r="C338" t="s">
-        <v>628</v>
+        <v>4</v>
       </c>
       <c r="D338" s="1">
         <v>434.3</v>
@@ -8057,11 +6185,11 @@
       <c r="A339" s="2">
         <v>337</v>
       </c>
-      <c r="B339" t="s">
-        <v>31</v>
+      <c r="B339">
+        <v>2024</v>
       </c>
       <c r="C339" t="s">
-        <v>629</v>
+        <v>4</v>
       </c>
       <c r="D339" s="1">
         <v>289.54</v>
@@ -8074,11 +6202,11 @@
       <c r="A340" s="2">
         <v>338</v>
       </c>
-      <c r="B340" t="s">
-        <v>32</v>
+      <c r="B340">
+        <v>2024</v>
       </c>
       <c r="C340" t="s">
-        <v>630</v>
+        <v>4</v>
       </c>
       <c r="D340" s="1">
         <v>119.06</v>
@@ -8091,11 +6219,11 @@
       <c r="A341" s="2">
         <v>339</v>
       </c>
-      <c r="B341" t="s">
-        <v>33</v>
+      <c r="B341">
+        <v>2024</v>
       </c>
       <c r="C341" t="s">
-        <v>631</v>
+        <v>4</v>
       </c>
       <c r="D341" s="1">
         <v>203.13</v>
@@ -8108,11 +6236,11 @@
       <c r="A342" s="2">
         <v>340</v>
       </c>
-      <c r="B342" t="s">
-        <v>34</v>
+      <c r="B342">
+        <v>2024</v>
       </c>
       <c r="C342" t="s">
-        <v>632</v>
+        <v>5</v>
       </c>
       <c r="D342" s="1">
         <v>5149.47</v>
@@ -8125,11 +6253,11 @@
       <c r="A343" s="2">
         <v>341</v>
       </c>
-      <c r="B343" t="s">
-        <v>35</v>
+      <c r="B343">
+        <v>2024</v>
       </c>
       <c r="C343" t="s">
-        <v>633</v>
+        <v>5</v>
       </c>
       <c r="D343" s="1">
         <v>152</v>
@@ -8142,11 +6270,11 @@
       <c r="A344" s="2">
         <v>342</v>
       </c>
-      <c r="B344" t="s">
-        <v>318</v>
+      <c r="B344">
+        <v>2024</v>
       </c>
       <c r="C344" t="s">
-        <v>634</v>
+        <v>5</v>
       </c>
       <c r="D344" s="1">
         <v>3577.7</v>
@@ -8159,11 +6287,11 @@
       <c r="A345" s="2">
         <v>343</v>
       </c>
-      <c r="B345" t="s">
-        <v>36</v>
+      <c r="B345">
+        <v>2024</v>
       </c>
       <c r="C345" t="s">
-        <v>635</v>
+        <v>5</v>
       </c>
       <c r="D345" s="1">
         <v>123</v>
@@ -8176,11 +6304,11 @@
       <c r="A346" s="2">
         <v>344</v>
       </c>
-      <c r="B346" t="s">
-        <v>37</v>
+      <c r="B346">
+        <v>2024</v>
       </c>
       <c r="C346" t="s">
-        <v>569</v>
+        <v>5</v>
       </c>
       <c r="D346" s="1">
         <v>27</v>
@@ -8193,11 +6321,11 @@
       <c r="A347" s="2">
         <v>345</v>
       </c>
-      <c r="B347" t="s">
-        <v>38</v>
+      <c r="B347">
+        <v>2024</v>
       </c>
       <c r="C347" t="s">
-        <v>636</v>
+        <v>5</v>
       </c>
       <c r="D347" s="1">
         <v>410.7</v>
@@ -8210,11 +6338,11 @@
       <c r="A348" s="2">
         <v>346</v>
       </c>
-      <c r="B348" t="s">
-        <v>39</v>
+      <c r="B348">
+        <v>2024</v>
       </c>
       <c r="C348" t="s">
-        <v>637</v>
+        <v>5</v>
       </c>
       <c r="D348" s="1">
         <v>154.7</v>
@@ -8227,11 +6355,11 @@
       <c r="A349" s="2">
         <v>347</v>
       </c>
-      <c r="B349" t="s">
-        <v>41</v>
+      <c r="B349">
+        <v>2024</v>
       </c>
       <c r="C349" t="s">
-        <v>569</v>
+        <v>5</v>
       </c>
       <c r="D349" s="1">
         <v>1393.2</v>
@@ -8244,11 +6372,11 @@
       <c r="A350" s="2">
         <v>348</v>
       </c>
-      <c r="B350" t="s">
-        <v>42</v>
+      <c r="B350">
+        <v>2024</v>
       </c>
       <c r="C350" t="s">
-        <v>638</v>
+        <v>5</v>
       </c>
       <c r="D350" s="1">
         <v>440.2</v>
@@ -8261,11 +6389,11 @@
       <c r="A351" s="2">
         <v>349</v>
       </c>
-      <c r="B351" t="s">
-        <v>319</v>
+      <c r="B351">
+        <v>2024</v>
       </c>
       <c r="C351" t="s">
-        <v>639</v>
+        <v>5</v>
       </c>
       <c r="D351" s="1">
         <v>364.3</v>
@@ -8279,7 +6407,7 @@
         <v>350</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>640</v>
+        <v>16</v>
       </c>
       <c r="D352" s="3">
         <v>230108.6299999998</v>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Dato</t>
+    <t>År</t>
+  </si>
+  <si>
+    <t>datestamp</t>
   </si>
   <si>
     <t>Ut</t>
@@ -24,193 +27,14 @@
   <si>
     <t>Inn</t>
   </si>
-  <si>
-    <t>1. Oktober</t>
-  </si>
-  <si>
-    <t>2. Oktober</t>
-  </si>
-  <si>
-    <t>9. Oktober</t>
-  </si>
-  <si>
-    <t>16. Oktober</t>
-  </si>
-  <si>
-    <t>23. Oktober</t>
-  </si>
-  <si>
-    <t>30. Oktober</t>
-  </si>
-  <si>
-    <t>6. November</t>
-  </si>
-  <si>
-    <t>13. November</t>
-  </si>
-  <si>
-    <t>20. November</t>
-  </si>
-  <si>
-    <t>27. November</t>
-  </si>
-  <si>
-    <t>4. Desember</t>
-  </si>
-  <si>
-    <t>11. Desember</t>
-  </si>
-  <si>
-    <t>18. Desember</t>
-  </si>
-  <si>
-    <t>25. Desember</t>
-  </si>
-  <si>
-    <t>1. Januar</t>
-  </si>
-  <si>
-    <t>8. Januar</t>
-  </si>
-  <si>
-    <t>15. Januar</t>
-  </si>
-  <si>
-    <t>22. Januar</t>
-  </si>
-  <si>
-    <t>29. Januar</t>
-  </si>
-  <si>
-    <t>5. Februar</t>
-  </si>
-  <si>
-    <t>12. Februar</t>
-  </si>
-  <si>
-    <t>19. Februar</t>
-  </si>
-  <si>
-    <t>26. Februar</t>
-  </si>
-  <si>
-    <t>5. Mars</t>
-  </si>
-  <si>
-    <t>11. Mars</t>
-  </si>
-  <si>
-    <t>18. Mars</t>
-  </si>
-  <si>
-    <t>25. Mars</t>
-  </si>
-  <si>
-    <t>1. April</t>
-  </si>
-  <si>
-    <t>8. April</t>
-  </si>
-  <si>
-    <t>15. April</t>
-  </si>
-  <si>
-    <t>22. April</t>
-  </si>
-  <si>
-    <t>29. April</t>
-  </si>
-  <si>
-    <t>6. Mai</t>
-  </si>
-  <si>
-    <t>13. Mai</t>
-  </si>
-  <si>
-    <t>21. Mai</t>
-  </si>
-  <si>
-    <t>27. Mai</t>
-  </si>
-  <si>
-    <t>3. Juni</t>
-  </si>
-  <si>
-    <t>10. Juni</t>
-  </si>
-  <si>
-    <t>17. Juni</t>
-  </si>
-  <si>
-    <t>24. Juni</t>
-  </si>
-  <si>
-    <t>1. Juli</t>
-  </si>
-  <si>
-    <t>8. Juli</t>
-  </si>
-  <si>
-    <t>15. Juli</t>
-  </si>
-  <si>
-    <t>23. Juli</t>
-  </si>
-  <si>
-    <t>31. Juli</t>
-  </si>
-  <si>
-    <t>6. August</t>
-  </si>
-  <si>
-    <t>12. August</t>
-  </si>
-  <si>
-    <t>19. August</t>
-  </si>
-  <si>
-    <t>26. August</t>
-  </si>
-  <si>
-    <t>2. September</t>
-  </si>
-  <si>
-    <t>9. September</t>
-  </si>
-  <si>
-    <t>16. September</t>
-  </si>
-  <si>
-    <t>23. September</t>
-  </si>
-  <si>
-    <t>30. September</t>
-  </si>
-  <si>
-    <t>7. Oktober</t>
-  </si>
-  <si>
-    <t>14. Oktober</t>
-  </si>
-  <si>
-    <t>21. Oktober</t>
-  </si>
-  <si>
-    <t>28. Oktober</t>
-  </si>
-  <si>
-    <t>4. November</t>
-  </si>
-  <si>
-    <t>11. November</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -264,12 +88,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -576,7 +401,7 @@
     <col min="4" max="5" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,601 +411,1045 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>4764</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45200</v>
+      </c>
+      <c r="D2" s="1">
+        <v>126</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45201</v>
+      </c>
+      <c r="D3" s="1">
         <v>2325.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45208</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5431.549999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45215</v>
+      </c>
+      <c r="D5" s="1">
         <v>1783.51</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45222</v>
+      </c>
+      <c r="D6" s="1">
         <v>1995.84</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>6001.070000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45229</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1363.07</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45236</v>
+      </c>
+      <c r="D8" s="1">
         <v>1582.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45243</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2613.440000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45250</v>
+      </c>
+      <c r="D10" s="1">
         <v>1173.49</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45257</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2379.7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
+      <c r="B12">
+        <v>2023</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45264</v>
+      </c>
+      <c r="D12" s="1">
         <v>2271.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13">
+        <v>2023</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45271</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1649.36</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45278</v>
+      </c>
+      <c r="D14" s="1">
         <v>4212.15</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45285</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1421.12</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45292</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1386.75</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17">
+      <c r="B17">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45299</v>
+      </c>
+      <c r="D17" s="1">
         <v>6446.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18">
+      <c r="B18">
+        <v>2024</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45306</v>
+      </c>
+      <c r="D18" s="1">
         <v>1641.26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19">
+      <c r="B19">
+        <v>2024</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45313</v>
+      </c>
+      <c r="D19" s="1">
         <v>2295.99</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>8253.360000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="B20">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45320</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3615.360000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="B21">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45327</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1799.9</v>
+      </c>
+      <c r="E21" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="B22">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="3">
+        <v>45334</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2179.29</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
+      <c r="B23">
+        <v>2024</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45341</v>
+      </c>
+      <c r="D23" s="1">
         <v>2169.360000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24">
-        <v>6240.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="B24">
+        <v>2024</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45348</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1602.3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
+      <c r="B25">
+        <v>2024</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45356</v>
+      </c>
+      <c r="D25" s="1">
         <v>3561.49</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="B26">
+        <v>2024</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45362</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3029.18</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="B27">
+        <v>2024</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45369</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2513.39</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
+      <c r="B28">
+        <v>2024</v>
+      </c>
+      <c r="C28" s="3">
+        <v>45376</v>
+      </c>
+      <c r="D28" s="1">
         <v>526.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>7510.409999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29">
+        <v>2024</v>
+      </c>
+      <c r="C29" s="3">
+        <v>45384</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2872.41</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30" s="3">
+        <v>45390</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1955.66</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="B31">
+        <v>2024</v>
+      </c>
+      <c r="C31" s="3">
+        <v>45397</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2897.6</v>
+      </c>
+      <c r="E31" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
+      <c r="B32">
+        <v>2024</v>
+      </c>
+      <c r="C32" s="3">
+        <v>45404</v>
+      </c>
+      <c r="D32" s="1">
         <v>1406.91</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="B33">
+        <v>2024</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45411</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2693.99</v>
+      </c>
+      <c r="E33" s="1">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
+      <c r="B34">
+        <v>2024</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45418</v>
+      </c>
+      <c r="D34" s="1">
         <v>2088.69</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="B35">
+        <v>2024</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45425</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1169.5</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36">
+      <c r="B36">
+        <v>2024</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45433</v>
+      </c>
+      <c r="D36" s="1">
         <v>1580.6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>7347.61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="B37">
+        <v>2024</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45439</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2709.61</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
+      <c r="B38">
+        <v>2024</v>
+      </c>
+      <c r="C38" s="3">
+        <v>45446</v>
+      </c>
+      <c r="D38" s="1">
         <v>2641.13</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="B39">
+        <v>2024</v>
+      </c>
+      <c r="C39" s="3">
+        <v>45453</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1240.09</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40">
+      <c r="B40">
+        <v>2024</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45460</v>
+      </c>
+      <c r="D40" s="1">
         <v>2837.67</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>2024</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45467</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2628.73</v>
+      </c>
+      <c r="E41" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:5">
       <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42">
-        <v>7763.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="B42">
+        <v>2024</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45474</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3125.5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="B43">
+        <v>2024</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45481</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1867.5</v>
+      </c>
+      <c r="E43" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="B44">
+        <v>2024</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45488</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1260.8</v>
+      </c>
+      <c r="E44" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45">
+      <c r="B45">
+        <v>2024</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45496</v>
+      </c>
+      <c r="D45" s="1">
         <v>2169.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46">
-        <v>7487.17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="B46">
+        <v>2024</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45504</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2539.17</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="B47">
+        <v>2024</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45510</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3552.66</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="B48">
+        <v>2024</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45516</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1321.95</v>
+      </c>
+      <c r="E48" s="1">
+        <v>10644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="B49">
+        <v>2024</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45523</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3688.96</v>
+      </c>
+      <c r="E49" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50">
-        <v>5806.62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45530</v>
+      </c>
+      <c r="D50" s="1">
+        <v>858.6199999999999</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51">
+      <c r="B51">
+        <v>2024</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45537</v>
+      </c>
+      <c r="D51" s="1">
         <v>3110.49</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="2">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="B52">
+        <v>2024</v>
+      </c>
+      <c r="C52" s="3">
+        <v>45544</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1475.92</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="2">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53">
+      <c r="B53">
+        <v>2024</v>
+      </c>
+      <c r="C53" s="3">
+        <v>45551</v>
+      </c>
+      <c r="D53" s="1">
         <v>1691.61</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54">
+      <c r="B54">
+        <v>2024</v>
+      </c>
+      <c r="C54" s="3">
+        <v>45558</v>
+      </c>
+      <c r="D54" s="1">
         <v>2082.35</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55">
-        <v>7328.6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="B55">
+        <v>2024</v>
+      </c>
+      <c r="C55" s="3">
+        <v>45565</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2380.6</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56">
+      <c r="B56">
+        <v>2024</v>
+      </c>
+      <c r="C56" s="3">
+        <v>45572</v>
+      </c>
+      <c r="D56" s="1">
         <v>1091.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57">
+      <c r="B57">
+        <v>2024</v>
+      </c>
+      <c r="C57" s="3">
+        <v>45579</v>
+      </c>
+      <c r="D57" s="1">
         <v>2746.83</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58">
+      <c r="B58">
+        <v>2024</v>
+      </c>
+      <c r="C58" s="3">
+        <v>45586</v>
+      </c>
+      <c r="D58" s="1">
         <v>1764.03</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="2">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59">
-        <v>9925.200000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="B59">
+        <v>2024</v>
+      </c>
+      <c r="C59" s="3">
+        <v>45593</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4977.2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="B60">
+        <v>2024</v>
+      </c>
+      <c r="C60" s="3">
+        <v>45600</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2548.799999999999</v>
+      </c>
+      <c r="E60" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="2">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61">
+      <c r="B61">
+        <v>2024</v>
+      </c>
+      <c r="C61" s="3">
+        <v>45607</v>
+      </c>
+      <c r="D61" s="1">
         <v>364.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" s="3" customFormat="1" ht="21" customHeight="1">
-      <c r="A62" s="2">
-        <v>60</v>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1" ht="21" customHeight="1">
+      <c r="D62" s="4">
+        <f>SUM(D2:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <f>SUM(E2:E59)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
